--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\FoVObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/trans/fovobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51308CF6-AAEC-3347-8023-E644FE79A712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="23955" windowHeight="12270"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,18 @@
     <definedName name="outputfrac_nonenergy">'Output by Industry'!$A$5</definedName>
     <definedName name="outputfrac_other">'Output by Industry'!$A$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2350,7 +2362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="\(\R\)\ #,##0"/>
@@ -2358,7 +2370,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3081,7 +3093,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3423,6 +3435,7 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3515,14 +3528,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Data_Sheet1 (2)_1" xfId="5"/>
-    <cellStyle name="Hed Side" xfId="3"/>
-    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4"/>
+    <cellStyle name="Data_Sheet1 (2)_1" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hed Side" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Source Text" xfId="7"/>
-    <cellStyle name="Table Title" xfId="1"/>
-    <cellStyle name="Title-1" xfId="2"/>
+    <cellStyle name="Source Text" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Table Title" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Title-1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3613,6 +3626,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3648,6 +3678,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3823,26 +3870,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="153">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
@@ -3850,314 +3900,314 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="73">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="76" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="73">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" s="76" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" s="76" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2">
       <c r="B26" s="73">
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2">
       <c r="B28" s="76" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="76" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="72" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" s="73" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="73">
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="73" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="117" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="73"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="72" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" s="73" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2">
       <c r="B46" s="73">
         <v>2013</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="73" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="117" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="B49" s="73"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="B50" s="72" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="B51" s="73" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="B52" s="73">
         <v>2012</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="B53" s="73" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="B54" s="117" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>313</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1"/>
-    <hyperlink ref="B35" r:id="rId2"/>
-    <hyperlink ref="B48" r:id="rId3"/>
-    <hyperlink ref="B54" r:id="rId4"/>
-    <hyperlink ref="B42" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B54" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -4165,18 +4215,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="119" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="119" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
@@ -4187,7 +4237,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="114">
         <v>2000</v>
       </c>
@@ -4198,7 +4248,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -4209,7 +4259,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="114">
         <v>2002</v>
       </c>
@@ -4220,7 +4270,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -4231,7 +4281,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="114">
         <v>2004</v>
       </c>
@@ -4242,7 +4292,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -4253,7 +4303,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="114">
         <v>2006</v>
       </c>
@@ -4264,7 +4314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -4275,7 +4325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="114">
         <v>2008</v>
       </c>
@@ -4286,7 +4336,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -4297,7 +4347,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="114">
         <v>2010</v>
       </c>
@@ -4308,7 +4358,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -4319,7 +4369,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -4330,7 +4380,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -4341,7 +4391,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -4353,7 +4403,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -4364,7 +4414,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -4375,7 +4425,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -4386,7 +4436,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -4397,7 +4447,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -4408,7 +4458,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -4419,7 +4469,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -4430,7 +4480,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -4441,7 +4491,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -4452,7 +4502,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -4463,7 +4513,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -4474,7 +4524,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -4485,7 +4535,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -4496,7 +4546,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -4507,7 +4557,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>2029</v>
       </c>
@@ -4518,7 +4568,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -4529,7 +4579,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>2031</v>
       </c>
@@ -4540,7 +4590,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>2032</v>
       </c>
@@ -4551,7 +4601,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>2033</v>
       </c>
@@ -4562,7 +4612,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>2034</v>
       </c>
@@ -4573,7 +4623,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>2035</v>
       </c>
@@ -4584,7 +4634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>2036</v>
       </c>
@@ -4595,7 +4645,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>2037</v>
       </c>
@@ -4606,7 +4656,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>2038</v>
       </c>
@@ -4617,7 +4667,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>2039</v>
       </c>
@@ -4628,7 +4678,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>2040</v>
       </c>
@@ -4639,7 +4689,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>2041</v>
       </c>
@@ -4650,7 +4700,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>2042</v>
       </c>
@@ -4661,7 +4711,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>2043</v>
       </c>
@@ -4672,7 +4722,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>2044</v>
       </c>
@@ -4683,7 +4733,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>2045</v>
       </c>
@@ -4694,7 +4744,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>2046</v>
       </c>
@@ -4705,7 +4755,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>2047</v>
       </c>
@@ -4716,7 +4766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>2048</v>
       </c>
@@ -4727,7 +4777,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>2049</v>
       </c>
@@ -4738,7 +4788,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>2050</v>
       </c>
@@ -4749,7 +4799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>2051</v>
       </c>
@@ -4760,7 +4810,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>2052</v>
       </c>
@@ -4771,7 +4821,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>2053</v>
       </c>
@@ -4782,7 +4832,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>2054</v>
       </c>
@@ -4793,7 +4843,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>2055</v>
       </c>
@@ -4804,7 +4854,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>2056</v>
       </c>
@@ -4815,7 +4865,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>2057</v>
       </c>
@@ -4826,7 +4876,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>2058</v>
       </c>
@@ -4837,7 +4887,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>2059</v>
       </c>
@@ -4848,7 +4898,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>2060</v>
       </c>
@@ -4865,28 +4915,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>308</v>
       </c>
@@ -4894,7 +4944,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="151">
         <v>0.93219819361870848</v>
       </c>
@@ -4902,7 +4952,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="151">
         <v>1.5490855293616566E-2</v>
       </c>
@@ -4910,7 +4960,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="151">
         <v>2.1866536828369144E-3</v>
       </c>
@@ -4918,7 +4968,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="151">
         <v>4.9443136381930888E-2</v>
       </c>
@@ -4926,7 +4976,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="151">
         <v>6.8116102290716575E-4</v>
       </c>
@@ -4934,7 +4984,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4948,21 +4998,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="126" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="126" customFormat="1" ht="33" thickBot="1">
       <c r="A1" s="120" t="s">
         <v>1</v>
       </c>
@@ -4982,7 +5032,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="48">
       <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +5055,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32">
       <c r="A3" s="83" t="s">
         <v>14</v>
       </c>
@@ -5027,7 +5077,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="83" t="s">
         <v>16</v>
       </c>
@@ -5047,7 +5097,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="32">
       <c r="A5" s="83" t="s">
         <v>18</v>
       </c>
@@ -5067,7 +5117,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="98" t="s">
         <v>20</v>
       </c>
@@ -5087,7 +5137,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="33" thickBot="1">
       <c r="A7" s="85" t="s">
         <v>167</v>
       </c>
@@ -5109,7 +5159,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="80">
       <c r="A8" s="104" t="s">
         <v>3</v>
       </c>
@@ -5129,7 +5179,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="32">
       <c r="A9" s="83" t="s">
         <v>15</v>
       </c>
@@ -5151,7 +5201,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="83" t="s">
         <v>17</v>
       </c>
@@ -5171,7 +5221,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="83" t="s">
         <v>19</v>
       </c>
@@ -5191,7 +5241,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="98" t="s">
         <v>21</v>
       </c>
@@ -5211,7 +5261,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16" thickBot="1">
       <c r="A13" s="107" t="s">
         <v>169</v>
       </c>
@@ -5223,12 +5273,12 @@
       <c r="E13" s="109"/>
       <c r="F13" s="88"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5242,7 +5292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5250,19 +5300,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="8" width="21.140625" style="113" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="113" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="6" max="8" width="21.1640625" style="113" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="113" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="126" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="126" customFormat="1" ht="48">
       <c r="A1" s="149" t="s">
         <v>314</v>
       </c>
@@ -5294,7 +5344,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -5329,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -5364,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -5399,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -5434,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -5469,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -5511,7 +5561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5519,17 +5569,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="8" width="21.140625" style="113" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="113" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="8" width="21.1640625" style="113" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="113" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="48">
       <c r="A1" s="149" t="s">
         <v>314</v>
       </c>
@@ -5561,7 +5611,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -5601,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -5641,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -5676,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -5713,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -5749,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -5793,59 +5843,59 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="A19" activeCellId="1" sqref="A16:XFD16 A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" style="127" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="127" customWidth="1"/>
-    <col min="4" max="19" width="10.7109375" style="127" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="148" customWidth="1"/>
-    <col min="21" max="31" width="10.7109375" style="127" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="127"/>
+    <col min="1" max="1" width="50.5" style="127" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" style="127" customWidth="1"/>
+    <col min="4" max="19" width="10.6640625" style="127" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="148" customWidth="1"/>
+    <col min="21" max="31" width="10.6640625" style="127" customWidth="1"/>
+    <col min="32" max="16384" width="9.1640625" style="127"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A1" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
-    </row>
-    <row r="2" spans="1:31" s="128" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+    </row>
+    <row r="2" spans="1:31" s="128" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="50"/>
       <c r="B2" s="51">
         <v>1960</v>
@@ -5938,7 +5988,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>97</v>
       </c>
@@ -5973,7 +6023,7 @@
       <c r="AD3" s="55"/>
       <c r="AE3" s="129"/>
     </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="16.5" customHeight="1">
       <c r="A4" s="56" t="s">
         <v>98</v>
       </c>
@@ -6068,7 +6118,7 @@
         <v>6733</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="16.5" customHeight="1">
       <c r="A5" s="56" t="s">
         <v>99</v>
       </c>
@@ -6163,7 +6213,7 @@
         <v>199927</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>101</v>
       </c>
@@ -6286,7 +6336,7 @@
         <v>255876822.00000003</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="16.5" customHeight="1">
       <c r="A7" s="56" t="s">
         <v>204</v>
       </c>
@@ -6381,7 +6431,7 @@
         <v>184497490.31559649</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1">
       <c r="A8" s="56" t="s">
         <v>206</v>
       </c>
@@ -6476,7 +6526,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="16.5" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>102</v>
       </c>
@@ -6571,7 +6621,7 @@
         <v>8404687</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="16.5" customHeight="1">
       <c r="A10" s="56" t="s">
         <v>207</v>
       </c>
@@ -6666,7 +6716,7 @@
         <v>51512739.866532281</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="16.5" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>208</v>
       </c>
@@ -6761,7 +6811,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="16.5" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>209</v>
       </c>
@@ -6856,7 +6906,7 @@
         <v>8126007.221129314</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="16.5" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>210</v>
       </c>
@@ -6951,7 +7001,7 @@
         <v>2471348.7033206243</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="16.5" customHeight="1">
       <c r="A14" s="56" t="s">
         <v>103</v>
       </c>
@@ -7046,7 +7096,7 @@
         <v>864548.89342128637</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="62" t="s">
         <v>211</v>
       </c>
@@ -7081,7 +7131,7 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="134"/>
     </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="16.5" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>212</v>
       </c>
@@ -7176,7 +7226,7 @@
         <v>62576</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="16.5" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>213</v>
       </c>
@@ -7271,7 +7321,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="16.5" customHeight="1">
       <c r="A18" s="63" t="s">
         <v>104</v>
       </c>
@@ -7366,7 +7416,7 @@
         <v>10380</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="16.5" customHeight="1">
       <c r="A19" s="56" t="s">
         <v>105</v>
       </c>
@@ -7461,7 +7511,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="16.5" customHeight="1">
       <c r="A20" s="56" t="s">
         <v>106</v>
       </c>
@@ -7556,7 +7606,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="16.5" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>214</v>
       </c>
@@ -7651,7 +7701,7 @@
         <v>27543</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="16.5" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>215</v>
       </c>
@@ -7746,7 +7796,7 @@
         <v>25930</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>107</v>
       </c>
@@ -7781,7 +7831,7 @@
       <c r="AD23" s="55"/>
       <c r="AE23" s="134"/>
     </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="16.5" customHeight="1">
       <c r="A24" s="56" t="s">
         <v>108</v>
       </c>
@@ -7876,7 +7926,7 @@
         <v>373838</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="16.5" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>109</v>
       </c>
@@ -7971,7 +8021,7 @@
         <v>25033</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="16.5" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>110</v>
       </c>
@@ -8066,7 +8116,7 @@
         <v>88122</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="16.5" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>111</v>
       </c>
@@ -8161,7 +8211,7 @@
         <v>873679</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="16.5" customHeight="1">
       <c r="A28" s="56" t="s">
         <v>112</v>
       </c>
@@ -8256,7 +8306,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="16.5" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>113</v>
       </c>
@@ -8351,7 +8401,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" s="130" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="53" t="s">
         <v>114</v>
       </c>
@@ -8386,7 +8436,7 @@
       <c r="AD30" s="54"/>
       <c r="AE30" s="134"/>
     </row>
-    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="16.5" customHeight="1">
       <c r="A31" s="56" t="s">
         <v>216</v>
       </c>
@@ -8481,7 +8531,7 @@
         <v>31081</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="16.5" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>217</v>
       </c>
@@ -8576,7 +8626,7 @@
         <v>8918</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" ht="16.5" customHeight="1">
       <c r="A33" s="64" t="s">
         <v>218</v>
       </c>
@@ -8671,7 +8721,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
       <c r="A34" s="65" t="s">
         <v>219</v>
       </c>
@@ -8766,25 +8816,25 @@
         <v>12013496</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="173" t="s">
+    <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A35" s="174" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="173"/>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="174"/>
+      <c r="M35" s="174"/>
+      <c r="N35" s="174"/>
+      <c r="O35" s="174"/>
+      <c r="P35" s="174"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
@@ -8800,1549 +8850,1549 @@
       <c r="AC35" s="68"/>
       <c r="AE35" s="127"/>
     </row>
-    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="174"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="174"/>
-      <c r="L36" s="174"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="174"/>
-      <c r="O36" s="174"/>
-      <c r="P36" s="174"/>
+    <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A36" s="175"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="175"/>
+      <c r="M36" s="175"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="175"/>
       <c r="Q36" s="140"/>
       <c r="R36" s="141"/>
       <c r="S36" s="141"/>
       <c r="T36" s="142"/>
     </row>
-    <row r="37" spans="1:31" s="145" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="175" t="s">
+    <row r="37" spans="1:31" s="145" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A37" s="176" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="175"/>
-      <c r="L37" s="175"/>
-      <c r="M37" s="175"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="175"/>
+      <c r="B37" s="176"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="176"/>
+      <c r="M37" s="176"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="176"/>
+      <c r="P37" s="176"/>
       <c r="Q37" s="143"/>
       <c r="R37" s="143"/>
       <c r="S37" s="143"/>
       <c r="T37" s="144"/>
     </row>
-    <row r="38" spans="1:31" s="145" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="170" t="s">
+    <row r="38" spans="1:31" s="145" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A38" s="171" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="170"/>
-      <c r="O38" s="170"/>
-      <c r="P38" s="170"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="171"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="171"/>
+      <c r="O38" s="171"/>
+      <c r="P38" s="171"/>
       <c r="Q38" s="143"/>
       <c r="R38" s="143"/>
       <c r="S38" s="143"/>
       <c r="T38" s="144"/>
     </row>
-    <row r="39" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="171" t="s">
+    <row r="39" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A39" s="172" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="171"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="171"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="171"/>
-      <c r="O39" s="171"/>
-      <c r="P39" s="171"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="172"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="172"/>
+      <c r="P39" s="172"/>
       <c r="Q39" s="143"/>
       <c r="R39" s="143"/>
       <c r="S39" s="143"/>
       <c r="T39" s="144"/>
     </row>
-    <row r="40" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="169" t="s">
+    <row r="40" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A40" s="170" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="169"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
-      <c r="K40" s="169"/>
-      <c r="L40" s="169"/>
-      <c r="M40" s="169"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="169"/>
-      <c r="P40" s="169"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="170"/>
+      <c r="O40" s="170"/>
+      <c r="P40" s="170"/>
       <c r="Q40" s="143"/>
       <c r="R40" s="143"/>
       <c r="S40" s="143"/>
       <c r="T40" s="144"/>
     </row>
-    <row r="41" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="169" t="s">
+    <row r="41" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A41" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="169"/>
-      <c r="I41" s="169"/>
-      <c r="J41" s="169"/>
-      <c r="K41" s="169"/>
-      <c r="L41" s="169"/>
-      <c r="M41" s="169"/>
-      <c r="N41" s="169"/>
-      <c r="O41" s="169"/>
-      <c r="P41" s="169"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="170"/>
+      <c r="P41" s="170"/>
       <c r="Q41" s="143"/>
       <c r="R41" s="143"/>
       <c r="S41" s="143"/>
       <c r="T41" s="144"/>
     </row>
-    <row r="42" spans="1:31" s="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="170" t="s">
+    <row r="42" spans="1:31" s="145" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A42" s="171" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="170"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="170"/>
-      <c r="P42" s="170"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
+      <c r="K42" s="171"/>
+      <c r="L42" s="171"/>
+      <c r="M42" s="171"/>
+      <c r="N42" s="171"/>
+      <c r="O42" s="171"/>
+      <c r="P42" s="171"/>
       <c r="T42" s="144"/>
     </row>
-    <row r="43" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="171" t="s">
+    <row r="43" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A43" s="172" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="171"/>
-      <c r="M43" s="171"/>
-      <c r="N43" s="171"/>
-      <c r="O43" s="171"/>
-      <c r="P43" s="171"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="172"/>
+      <c r="K43" s="172"/>
+      <c r="L43" s="172"/>
+      <c r="M43" s="172"/>
+      <c r="N43" s="172"/>
+      <c r="O43" s="172"/>
+      <c r="P43" s="172"/>
       <c r="T43" s="144"/>
     </row>
-    <row r="44" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="171" t="s">
+    <row r="44" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A44" s="172" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="171"/>
-      <c r="M44" s="171"/>
-      <c r="N44" s="171"/>
-      <c r="O44" s="171"/>
-      <c r="P44" s="171"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="172"/>
+      <c r="N44" s="172"/>
+      <c r="O44" s="172"/>
+      <c r="P44" s="172"/>
       <c r="T44" s="144"/>
     </row>
-    <row r="45" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+    <row r="45" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A45" s="163" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="162"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="162"/>
-      <c r="J45" s="162"/>
-      <c r="K45" s="162"/>
-      <c r="L45" s="162"/>
-      <c r="M45" s="162"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="162"/>
-      <c r="P45" s="162"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="163"/>
+      <c r="J45" s="163"/>
+      <c r="K45" s="163"/>
+      <c r="L45" s="163"/>
+      <c r="M45" s="163"/>
+      <c r="N45" s="163"/>
+      <c r="O45" s="163"/>
+      <c r="P45" s="163"/>
       <c r="T45" s="144"/>
     </row>
-    <row r="46" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="169" t="s">
+    <row r="46" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A46" s="170" t="s">
         <v>230</v>
       </c>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="169"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="169"/>
-      <c r="I46" s="169"/>
-      <c r="J46" s="169"/>
-      <c r="K46" s="169"/>
-      <c r="L46" s="169"/>
-      <c r="M46" s="169"/>
-      <c r="N46" s="169"/>
-      <c r="O46" s="169"/>
-      <c r="P46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="170"/>
+      <c r="M46" s="170"/>
+      <c r="N46" s="170"/>
+      <c r="O46" s="170"/>
+      <c r="P46" s="170"/>
       <c r="T46" s="144"/>
     </row>
-    <row r="47" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="169" t="s">
+    <row r="47" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A47" s="170" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="169"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="169"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="169"/>
-      <c r="M47" s="169"/>
-      <c r="N47" s="169"/>
-      <c r="O47" s="169"/>
-      <c r="P47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="170"/>
+      <c r="L47" s="170"/>
+      <c r="M47" s="170"/>
+      <c r="N47" s="170"/>
+      <c r="O47" s="170"/>
+      <c r="P47" s="170"/>
       <c r="T47" s="144"/>
     </row>
-    <row r="48" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="169" t="s">
+    <row r="48" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A48" s="170" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="169"/>
-      <c r="K48" s="169"/>
-      <c r="L48" s="169"/>
-      <c r="M48" s="169"/>
-      <c r="N48" s="169"/>
-      <c r="O48" s="169"/>
-      <c r="P48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="170"/>
+      <c r="K48" s="170"/>
+      <c r="L48" s="170"/>
+      <c r="M48" s="170"/>
+      <c r="N48" s="170"/>
+      <c r="O48" s="170"/>
+      <c r="P48" s="170"/>
       <c r="T48" s="144"/>
     </row>
-    <row r="49" spans="1:20" s="145" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="169" t="s">
+    <row r="49" spans="1:20" s="145" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A49" s="170" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="169"/>
-      <c r="G49" s="169"/>
-      <c r="H49" s="169"/>
-      <c r="I49" s="169"/>
-      <c r="J49" s="169"/>
-      <c r="K49" s="169"/>
-      <c r="L49" s="169"/>
-      <c r="M49" s="169"/>
-      <c r="N49" s="169"/>
-      <c r="O49" s="169"/>
-      <c r="P49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="170"/>
+      <c r="K49" s="170"/>
+      <c r="L49" s="170"/>
+      <c r="M49" s="170"/>
+      <c r="N49" s="170"/>
+      <c r="O49" s="170"/>
+      <c r="P49" s="170"/>
       <c r="T49" s="144"/>
     </row>
-    <row r="50" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="169" t="s">
+    <row r="50" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A50" s="170" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="169"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="169"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
+      <c r="E50" s="170"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="170"/>
+      <c r="L50" s="170"/>
+      <c r="M50" s="170"/>
+      <c r="N50" s="170"/>
+      <c r="O50" s="170"/>
+      <c r="P50" s="170"/>
       <c r="T50" s="144"/>
     </row>
-    <row r="51" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="168"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="168"/>
-      <c r="L51" s="168"/>
-      <c r="M51" s="168"/>
-      <c r="N51" s="168"/>
-      <c r="O51" s="168"/>
-      <c r="P51" s="168"/>
+    <row r="51" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A51" s="169"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="169"/>
+      <c r="M51" s="169"/>
+      <c r="N51" s="169"/>
+      <c r="O51" s="169"/>
+      <c r="P51" s="169"/>
       <c r="T51" s="147"/>
     </row>
-    <row r="52" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="161" t="s">
+    <row r="52" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A52" s="162" t="s">
         <v>235</v>
       </c>
-      <c r="B52" s="161"/>
-      <c r="C52" s="161"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="161"/>
-      <c r="J52" s="161"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="161"/>
-      <c r="M52" s="161"/>
-      <c r="N52" s="161"/>
-      <c r="O52" s="161"/>
-      <c r="P52" s="161"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="162"/>
+      <c r="F52" s="162"/>
+      <c r="G52" s="162"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="162"/>
+      <c r="J52" s="162"/>
+      <c r="K52" s="162"/>
+      <c r="L52" s="162"/>
+      <c r="M52" s="162"/>
+      <c r="N52" s="162"/>
+      <c r="O52" s="162"/>
+      <c r="P52" s="162"/>
       <c r="T52" s="144"/>
     </row>
-    <row r="53" spans="1:20" s="145" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="162" t="s">
+    <row r="53" spans="1:20" s="145" customFormat="1" ht="42" customHeight="1">
+      <c r="A53" s="163" t="s">
         <v>236</v>
       </c>
-      <c r="B53" s="162"/>
-      <c r="C53" s="162"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="162"/>
-      <c r="F53" s="162"/>
-      <c r="G53" s="162"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="162"/>
-      <c r="L53" s="162"/>
-      <c r="M53" s="162"/>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="162"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="163"/>
+      <c r="L53" s="163"/>
+      <c r="M53" s="163"/>
+      <c r="N53" s="163"/>
+      <c r="O53" s="163"/>
+      <c r="P53" s="163"/>
       <c r="T53" s="144"/>
     </row>
-    <row r="54" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="163" t="s">
+    <row r="54" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A54" s="164" t="s">
         <v>237</v>
       </c>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
-      <c r="E54" s="163"/>
-      <c r="F54" s="163"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="163"/>
-      <c r="J54" s="163"/>
-      <c r="K54" s="163"/>
-      <c r="L54" s="163"/>
-      <c r="M54" s="163"/>
-      <c r="N54" s="163"/>
-      <c r="O54" s="163"/>
-      <c r="P54" s="163"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="164"/>
+      <c r="L54" s="164"/>
+      <c r="M54" s="164"/>
+      <c r="N54" s="164"/>
+      <c r="O54" s="164"/>
+      <c r="P54" s="164"/>
       <c r="T54" s="144"/>
     </row>
-    <row r="55" spans="1:20" s="145" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="164" t="s">
+    <row r="55" spans="1:20" s="145" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A55" s="165" t="s">
         <v>238</v>
       </c>
-      <c r="B55" s="164"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="164"/>
-      <c r="L55" s="164"/>
-      <c r="M55" s="164"/>
-      <c r="N55" s="164"/>
-      <c r="O55" s="164"/>
-      <c r="P55" s="164"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="165"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="165"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="165"/>
+      <c r="L55" s="165"/>
+      <c r="M55" s="165"/>
+      <c r="N55" s="165"/>
+      <c r="O55" s="165"/>
+      <c r="P55" s="165"/>
       <c r="T55" s="144"/>
     </row>
-    <row r="56" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="163" t="s">
+    <row r="56" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A56" s="164" t="s">
         <v>239</v>
       </c>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
-      <c r="E56" s="163"/>
-      <c r="F56" s="163"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="163"/>
-      <c r="L56" s="163"/>
-      <c r="M56" s="163"/>
-      <c r="N56" s="163"/>
-      <c r="O56" s="163"/>
-      <c r="P56" s="163"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="164"/>
+      <c r="L56" s="164"/>
+      <c r="M56" s="164"/>
+      <c r="N56" s="164"/>
+      <c r="O56" s="164"/>
+      <c r="P56" s="164"/>
       <c r="T56" s="147"/>
     </row>
-    <row r="57" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="163" t="s">
+    <row r="57" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A57" s="164" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="163"/>
-      <c r="J57" s="163"/>
-      <c r="K57" s="163"/>
-      <c r="L57" s="163"/>
-      <c r="M57" s="163"/>
-      <c r="N57" s="163"/>
-      <c r="O57" s="163"/>
-      <c r="P57" s="163"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="164"/>
+      <c r="M57" s="164"/>
+      <c r="N57" s="164"/>
+      <c r="O57" s="164"/>
+      <c r="P57" s="164"/>
       <c r="T57" s="147"/>
     </row>
-    <row r="58" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="165"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="165"/>
-      <c r="K58" s="165"/>
-      <c r="L58" s="165"/>
-      <c r="M58" s="165"/>
-      <c r="N58" s="165"/>
-      <c r="O58" s="165"/>
-      <c r="P58" s="165"/>
+    <row r="58" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A58" s="166"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
+      <c r="E58" s="166"/>
+      <c r="F58" s="166"/>
+      <c r="G58" s="166"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="166"/>
+      <c r="J58" s="166"/>
+      <c r="K58" s="166"/>
+      <c r="L58" s="166"/>
+      <c r="M58" s="166"/>
+      <c r="N58" s="166"/>
+      <c r="O58" s="166"/>
+      <c r="P58" s="166"/>
       <c r="T58" s="147"/>
     </row>
-    <row r="59" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="166" t="s">
+    <row r="59" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A59" s="167" t="s">
         <v>241</v>
       </c>
-      <c r="B59" s="166"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="166"/>
-      <c r="L59" s="166"/>
-      <c r="M59" s="166"/>
-      <c r="N59" s="166"/>
-      <c r="O59" s="166"/>
-      <c r="P59" s="166"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="167"/>
+      <c r="I59" s="167"/>
+      <c r="J59" s="167"/>
+      <c r="K59" s="167"/>
+      <c r="L59" s="167"/>
+      <c r="M59" s="167"/>
+      <c r="N59" s="167"/>
+      <c r="O59" s="167"/>
+      <c r="P59" s="167"/>
       <c r="T59" s="147"/>
     </row>
-    <row r="60" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="166" t="s">
+    <row r="60" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A60" s="167" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="166"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
-      <c r="E60" s="166"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="166"/>
-      <c r="H60" s="166"/>
-      <c r="I60" s="166"/>
-      <c r="J60" s="166"/>
-      <c r="K60" s="166"/>
-      <c r="L60" s="166"/>
-      <c r="M60" s="166"/>
-      <c r="N60" s="166"/>
-      <c r="O60" s="166"/>
-      <c r="P60" s="166"/>
+      <c r="B60" s="167"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="167"/>
+      <c r="M60" s="167"/>
+      <c r="N60" s="167"/>
+      <c r="O60" s="167"/>
+      <c r="P60" s="167"/>
       <c r="T60" s="144"/>
     </row>
-    <row r="61" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="154" t="s">
+    <row r="61" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A61" s="155" t="s">
         <v>243</v>
       </c>
-      <c r="B61" s="154"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="154"/>
-      <c r="G61" s="154"/>
-      <c r="H61" s="154"/>
-      <c r="I61" s="154"/>
-      <c r="J61" s="154"/>
-      <c r="K61" s="154"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
-      <c r="N61" s="154"/>
-      <c r="O61" s="154"/>
-      <c r="P61" s="154"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="155"/>
+      <c r="P61" s="155"/>
       <c r="T61" s="147"/>
     </row>
-    <row r="62" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="167" t="s">
+    <row r="62" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A62" s="168" t="s">
         <v>244</v>
       </c>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="167"/>
-      <c r="G62" s="167"/>
-      <c r="H62" s="167"/>
-      <c r="I62" s="167"/>
-      <c r="J62" s="167"/>
-      <c r="K62" s="167"/>
-      <c r="L62" s="167"/>
-      <c r="M62" s="167"/>
-      <c r="N62" s="167"/>
-      <c r="O62" s="167"/>
-      <c r="P62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="168"/>
+      <c r="K62" s="168"/>
+      <c r="L62" s="168"/>
+      <c r="M62" s="168"/>
+      <c r="N62" s="168"/>
+      <c r="O62" s="168"/>
+      <c r="P62" s="168"/>
       <c r="T62" s="147"/>
     </row>
-    <row r="63" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="155" t="s">
+    <row r="63" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A63" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="B63" s="155"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="155"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="155"/>
-      <c r="L63" s="155"/>
-      <c r="M63" s="155"/>
-      <c r="N63" s="155"/>
-      <c r="O63" s="155"/>
-      <c r="P63" s="155"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="156"/>
+      <c r="N63" s="156"/>
+      <c r="O63" s="156"/>
+      <c r="P63" s="156"/>
       <c r="T63" s="147"/>
     </row>
-    <row r="64" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="155" t="s">
+    <row r="64" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A64" s="156" t="s">
         <v>246</v>
       </c>
-      <c r="B64" s="155"/>
-      <c r="C64" s="155"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="155"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="155"/>
-      <c r="H64" s="155"/>
-      <c r="I64" s="155"/>
-      <c r="J64" s="155"/>
-      <c r="K64" s="155"/>
-      <c r="L64" s="155"/>
-      <c r="M64" s="155"/>
-      <c r="N64" s="155"/>
-      <c r="O64" s="155"/>
-      <c r="P64" s="155"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
+      <c r="M64" s="156"/>
+      <c r="N64" s="156"/>
+      <c r="O64" s="156"/>
+      <c r="P64" s="156"/>
       <c r="T64" s="147"/>
     </row>
-    <row r="65" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="155" t="s">
+    <row r="65" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A65" s="156" t="s">
         <v>247</v>
       </c>
-      <c r="B65" s="155"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="155"/>
-      <c r="H65" s="155"/>
-      <c r="I65" s="155"/>
-      <c r="J65" s="155"/>
-      <c r="K65" s="155"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="155"/>
-      <c r="N65" s="155"/>
-      <c r="O65" s="155"/>
-      <c r="P65" s="155"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="156"/>
+      <c r="L65" s="156"/>
+      <c r="M65" s="156"/>
+      <c r="N65" s="156"/>
+      <c r="O65" s="156"/>
+      <c r="P65" s="156"/>
       <c r="T65" s="147"/>
     </row>
-    <row r="66" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="155" t="s">
+    <row r="66" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A66" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B66" s="155"/>
-      <c r="C66" s="155"/>
-      <c r="D66" s="155"/>
-      <c r="E66" s="155"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="155"/>
-      <c r="H66" s="155"/>
-      <c r="I66" s="155"/>
-      <c r="J66" s="155"/>
-      <c r="K66" s="155"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
-      <c r="N66" s="155"/>
-      <c r="O66" s="155"/>
-      <c r="P66" s="155"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+      <c r="L66" s="156"/>
+      <c r="M66" s="156"/>
+      <c r="N66" s="156"/>
+      <c r="O66" s="156"/>
+      <c r="P66" s="156"/>
       <c r="T66" s="147"/>
     </row>
-    <row r="67" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="155" t="s">
+    <row r="67" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A67" s="156" t="s">
         <v>249</v>
       </c>
-      <c r="B67" s="155"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="155"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="155"/>
-      <c r="H67" s="155"/>
-      <c r="I67" s="155"/>
-      <c r="J67" s="155"/>
-      <c r="K67" s="155"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
-      <c r="N67" s="155"/>
-      <c r="O67" s="155"/>
-      <c r="P67" s="155"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="156"/>
+      <c r="K67" s="156"/>
+      <c r="L67" s="156"/>
+      <c r="M67" s="156"/>
+      <c r="N67" s="156"/>
+      <c r="O67" s="156"/>
+      <c r="P67" s="156"/>
       <c r="T67" s="147"/>
     </row>
-    <row r="68" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="154" t="s">
+    <row r="68" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A68" s="155" t="s">
         <v>250</v>
       </c>
-      <c r="B68" s="154"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-      <c r="I68" s="154"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="154"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="154"/>
-      <c r="N68" s="154"/>
-      <c r="O68" s="154"/>
-      <c r="P68" s="154"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="155"/>
+      <c r="E68" s="155"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="155"/>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="155"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
+      <c r="N68" s="155"/>
+      <c r="O68" s="155"/>
+      <c r="P68" s="155"/>
       <c r="T68" s="147"/>
     </row>
-    <row r="69" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="155" t="s">
+    <row r="69" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A69" s="156" t="s">
         <v>251</v>
       </c>
-      <c r="B69" s="155"/>
-      <c r="C69" s="155"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="155"/>
-      <c r="K69" s="155"/>
-      <c r="L69" s="155"/>
-      <c r="M69" s="155"/>
-      <c r="N69" s="155"/>
-      <c r="O69" s="155"/>
-      <c r="P69" s="155"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="156"/>
+      <c r="I69" s="156"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="156"/>
+      <c r="L69" s="156"/>
+      <c r="M69" s="156"/>
+      <c r="N69" s="156"/>
+      <c r="O69" s="156"/>
+      <c r="P69" s="156"/>
       <c r="T69" s="147"/>
     </row>
-    <row r="70" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="155" t="s">
+    <row r="70" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A70" s="156" t="s">
         <v>252</v>
       </c>
-      <c r="B70" s="155"/>
-      <c r="C70" s="155"/>
-      <c r="D70" s="155"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="155"/>
-      <c r="H70" s="155"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="155"/>
-      <c r="O70" s="155"/>
-      <c r="P70" s="155"/>
+      <c r="B70" s="156"/>
+      <c r="C70" s="156"/>
+      <c r="D70" s="156"/>
+      <c r="E70" s="156"/>
+      <c r="F70" s="156"/>
+      <c r="G70" s="156"/>
+      <c r="H70" s="156"/>
+      <c r="I70" s="156"/>
+      <c r="J70" s="156"/>
+      <c r="K70" s="156"/>
+      <c r="L70" s="156"/>
+      <c r="M70" s="156"/>
+      <c r="N70" s="156"/>
+      <c r="O70" s="156"/>
+      <c r="P70" s="156"/>
       <c r="T70" s="147"/>
     </row>
-    <row r="71" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="155" t="s">
+    <row r="71" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A71" s="156" t="s">
         <v>253</v>
       </c>
-      <c r="B71" s="155"/>
-      <c r="C71" s="155"/>
-      <c r="D71" s="155"/>
-      <c r="E71" s="155"/>
-      <c r="F71" s="155"/>
-      <c r="G71" s="155"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="155"/>
-      <c r="K71" s="155"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
-      <c r="O71" s="155"/>
-      <c r="P71" s="155"/>
+      <c r="B71" s="156"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="156"/>
+      <c r="G71" s="156"/>
+      <c r="H71" s="156"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="156"/>
+      <c r="K71" s="156"/>
+      <c r="L71" s="156"/>
+      <c r="M71" s="156"/>
+      <c r="N71" s="156"/>
+      <c r="O71" s="156"/>
+      <c r="P71" s="156"/>
       <c r="T71" s="147"/>
     </row>
-    <row r="72" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="155" t="s">
+    <row r="72" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A72" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="B72" s="155"/>
-      <c r="C72" s="155"/>
-      <c r="D72" s="155"/>
-      <c r="E72" s="155"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="155"/>
-      <c r="H72" s="155"/>
-      <c r="I72" s="155"/>
-      <c r="J72" s="155"/>
-      <c r="K72" s="155"/>
-      <c r="L72" s="155"/>
-      <c r="M72" s="155"/>
-      <c r="N72" s="155"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="155"/>
+      <c r="B72" s="156"/>
+      <c r="C72" s="156"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="156"/>
+      <c r="F72" s="156"/>
+      <c r="G72" s="156"/>
+      <c r="H72" s="156"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="156"/>
+      <c r="K72" s="156"/>
+      <c r="L72" s="156"/>
+      <c r="M72" s="156"/>
+      <c r="N72" s="156"/>
+      <c r="O72" s="156"/>
+      <c r="P72" s="156"/>
       <c r="T72" s="147"/>
     </row>
-    <row r="73" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="155" t="s">
+    <row r="73" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="155"/>
-      <c r="C73" s="155"/>
-      <c r="D73" s="155"/>
-      <c r="E73" s="155"/>
-      <c r="F73" s="155"/>
-      <c r="G73" s="155"/>
-      <c r="H73" s="155"/>
-      <c r="I73" s="155"/>
-      <c r="J73" s="155"/>
-      <c r="K73" s="155"/>
-      <c r="L73" s="155"/>
-      <c r="M73" s="155"/>
-      <c r="N73" s="155"/>
-      <c r="O73" s="155"/>
-      <c r="P73" s="155"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="156"/>
+      <c r="D73" s="156"/>
+      <c r="E73" s="156"/>
+      <c r="F73" s="156"/>
+      <c r="G73" s="156"/>
+      <c r="H73" s="156"/>
+      <c r="I73" s="156"/>
+      <c r="J73" s="156"/>
+      <c r="K73" s="156"/>
+      <c r="L73" s="156"/>
+      <c r="M73" s="156"/>
+      <c r="N73" s="156"/>
+      <c r="O73" s="156"/>
+      <c r="P73" s="156"/>
       <c r="T73" s="147"/>
     </row>
-    <row r="74" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="156" t="s">
+    <row r="74" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A74" s="157" t="s">
         <v>256</v>
       </c>
-      <c r="B74" s="156"/>
-      <c r="C74" s="156"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="156"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="156"/>
-      <c r="H74" s="156"/>
-      <c r="I74" s="156"/>
-      <c r="J74" s="156"/>
-      <c r="K74" s="156"/>
-      <c r="L74" s="156"/>
-      <c r="M74" s="156"/>
-      <c r="N74" s="156"/>
-      <c r="O74" s="156"/>
-      <c r="P74" s="156"/>
+      <c r="B74" s="157"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="157"/>
+      <c r="E74" s="157"/>
+      <c r="F74" s="157"/>
+      <c r="G74" s="157"/>
+      <c r="H74" s="157"/>
+      <c r="I74" s="157"/>
+      <c r="J74" s="157"/>
+      <c r="K74" s="157"/>
+      <c r="L74" s="157"/>
+      <c r="M74" s="157"/>
+      <c r="N74" s="157"/>
+      <c r="O74" s="157"/>
+      <c r="P74" s="157"/>
       <c r="T74" s="147"/>
     </row>
-    <row r="75" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="154" t="s">
+    <row r="75" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A75" s="155" t="s">
         <v>257</v>
       </c>
-      <c r="B75" s="154"/>
-      <c r="C75" s="154"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="154"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="154"/>
-      <c r="H75" s="154"/>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="154"/>
-      <c r="M75" s="154"/>
-      <c r="N75" s="154"/>
-      <c r="O75" s="154"/>
-      <c r="P75" s="154"/>
+      <c r="B75" s="155"/>
+      <c r="C75" s="155"/>
+      <c r="D75" s="155"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="155"/>
+      <c r="G75" s="155"/>
+      <c r="H75" s="155"/>
+      <c r="I75" s="155"/>
+      <c r="J75" s="155"/>
+      <c r="K75" s="155"/>
+      <c r="L75" s="155"/>
+      <c r="M75" s="155"/>
+      <c r="N75" s="155"/>
+      <c r="O75" s="155"/>
+      <c r="P75" s="155"/>
       <c r="T75" s="144"/>
     </row>
-    <row r="76" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="157" t="s">
+    <row r="76" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A76" s="158" t="s">
         <v>258</v>
       </c>
-      <c r="B76" s="157"/>
-      <c r="C76" s="157"/>
-      <c r="D76" s="157"/>
-      <c r="E76" s="157"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="157"/>
-      <c r="I76" s="157"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="157"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
-      <c r="P76" s="157"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
+      <c r="J76" s="158"/>
+      <c r="K76" s="158"/>
+      <c r="L76" s="158"/>
+      <c r="M76" s="158"/>
+      <c r="N76" s="158"/>
+      <c r="O76" s="158"/>
+      <c r="P76" s="158"/>
       <c r="T76" s="147"/>
     </row>
-    <row r="77" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="159" t="s">
+    <row r="77" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A77" s="160" t="s">
         <v>259</v>
       </c>
-      <c r="B77" s="159"/>
-      <c r="C77" s="159"/>
-      <c r="D77" s="159"/>
-      <c r="E77" s="159"/>
-      <c r="F77" s="159"/>
-      <c r="G77" s="159"/>
-      <c r="H77" s="159"/>
-      <c r="I77" s="159"/>
-      <c r="J77" s="159"/>
-      <c r="K77" s="159"/>
-      <c r="L77" s="159"/>
-      <c r="M77" s="159"/>
-      <c r="N77" s="159"/>
-      <c r="O77" s="159"/>
-      <c r="P77" s="159"/>
+      <c r="B77" s="160"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="160"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="160"/>
+      <c r="I77" s="160"/>
+      <c r="J77" s="160"/>
+      <c r="K77" s="160"/>
+      <c r="L77" s="160"/>
+      <c r="M77" s="160"/>
+      <c r="N77" s="160"/>
+      <c r="O77" s="160"/>
+      <c r="P77" s="160"/>
       <c r="T77" s="147"/>
     </row>
-    <row r="78" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="160" t="s">
+    <row r="78" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A78" s="161" t="s">
         <v>260</v>
       </c>
-      <c r="B78" s="160"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="160"/>
-      <c r="E78" s="160"/>
-      <c r="F78" s="160"/>
-      <c r="G78" s="160"/>
-      <c r="H78" s="160"/>
-      <c r="I78" s="160"/>
-      <c r="J78" s="160"/>
-      <c r="K78" s="160"/>
-      <c r="L78" s="160"/>
-      <c r="M78" s="160"/>
-      <c r="N78" s="160"/>
-      <c r="O78" s="160"/>
-      <c r="P78" s="160"/>
+      <c r="B78" s="161"/>
+      <c r="C78" s="161"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="161"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="161"/>
+      <c r="H78" s="161"/>
+      <c r="I78" s="161"/>
+      <c r="J78" s="161"/>
+      <c r="K78" s="161"/>
+      <c r="L78" s="161"/>
+      <c r="M78" s="161"/>
+      <c r="N78" s="161"/>
+      <c r="O78" s="161"/>
+      <c r="P78" s="161"/>
       <c r="T78" s="147"/>
     </row>
-    <row r="79" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="159" t="s">
+    <row r="79" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A79" s="160" t="s">
         <v>261</v>
       </c>
-      <c r="B79" s="159"/>
-      <c r="C79" s="159"/>
-      <c r="D79" s="159"/>
-      <c r="E79" s="159"/>
-      <c r="F79" s="159"/>
-      <c r="G79" s="159"/>
-      <c r="H79" s="159"/>
-      <c r="I79" s="159"/>
-      <c r="J79" s="159"/>
-      <c r="K79" s="159"/>
-      <c r="L79" s="159"/>
-      <c r="M79" s="159"/>
-      <c r="N79" s="159"/>
-      <c r="O79" s="159"/>
-      <c r="P79" s="159"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="160"/>
+      <c r="D79" s="160"/>
+      <c r="E79" s="160"/>
+      <c r="F79" s="160"/>
+      <c r="G79" s="160"/>
+      <c r="H79" s="160"/>
+      <c r="I79" s="160"/>
+      <c r="J79" s="160"/>
+      <c r="K79" s="160"/>
+      <c r="L79" s="160"/>
+      <c r="M79" s="160"/>
+      <c r="N79" s="160"/>
+      <c r="O79" s="160"/>
+      <c r="P79" s="160"/>
       <c r="T79" s="147"/>
     </row>
-    <row r="80" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="154" t="s">
+    <row r="80" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A80" s="155" t="s">
         <v>262</v>
       </c>
-      <c r="B80" s="154"/>
-      <c r="C80" s="154"/>
-      <c r="D80" s="154"/>
-      <c r="E80" s="154"/>
-      <c r="F80" s="154"/>
-      <c r="G80" s="154"/>
-      <c r="H80" s="154"/>
-      <c r="I80" s="154"/>
-      <c r="J80" s="154"/>
-      <c r="K80" s="154"/>
-      <c r="L80" s="154"/>
-      <c r="M80" s="154"/>
-      <c r="N80" s="154"/>
-      <c r="O80" s="154"/>
-      <c r="P80" s="154"/>
+      <c r="B80" s="155"/>
+      <c r="C80" s="155"/>
+      <c r="D80" s="155"/>
+      <c r="E80" s="155"/>
+      <c r="F80" s="155"/>
+      <c r="G80" s="155"/>
+      <c r="H80" s="155"/>
+      <c r="I80" s="155"/>
+      <c r="J80" s="155"/>
+      <c r="K80" s="155"/>
+      <c r="L80" s="155"/>
+      <c r="M80" s="155"/>
+      <c r="N80" s="155"/>
+      <c r="O80" s="155"/>
+      <c r="P80" s="155"/>
       <c r="T80" s="147"/>
     </row>
-    <row r="81" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="157" t="s">
+    <row r="81" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A81" s="158" t="s">
         <v>263</v>
       </c>
-      <c r="B81" s="157"/>
-      <c r="C81" s="157"/>
-      <c r="D81" s="157"/>
-      <c r="E81" s="157"/>
-      <c r="F81" s="157"/>
-      <c r="G81" s="157"/>
-      <c r="H81" s="157"/>
-      <c r="I81" s="157"/>
-      <c r="J81" s="157"/>
-      <c r="K81" s="157"/>
-      <c r="L81" s="157"/>
-      <c r="M81" s="157"/>
-      <c r="N81" s="157"/>
-      <c r="O81" s="157"/>
-      <c r="P81" s="157"/>
+      <c r="B81" s="158"/>
+      <c r="C81" s="158"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="158"/>
+      <c r="F81" s="158"/>
+      <c r="G81" s="158"/>
+      <c r="H81" s="158"/>
+      <c r="I81" s="158"/>
+      <c r="J81" s="158"/>
+      <c r="K81" s="158"/>
+      <c r="L81" s="158"/>
+      <c r="M81" s="158"/>
+      <c r="N81" s="158"/>
+      <c r="O81" s="158"/>
+      <c r="P81" s="158"/>
       <c r="T81" s="147"/>
     </row>
-    <row r="82" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="159" t="s">
+    <row r="82" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A82" s="160" t="s">
         <v>264</v>
       </c>
-      <c r="B82" s="159"/>
-      <c r="C82" s="159"/>
-      <c r="D82" s="159"/>
-      <c r="E82" s="159"/>
-      <c r="F82" s="159"/>
-      <c r="G82" s="159"/>
-      <c r="H82" s="159"/>
-      <c r="I82" s="159"/>
-      <c r="J82" s="159"/>
-      <c r="K82" s="159"/>
-      <c r="L82" s="159"/>
-      <c r="M82" s="159"/>
-      <c r="N82" s="159"/>
-      <c r="O82" s="159"/>
-      <c r="P82" s="159"/>
+      <c r="B82" s="160"/>
+      <c r="C82" s="160"/>
+      <c r="D82" s="160"/>
+      <c r="E82" s="160"/>
+      <c r="F82" s="160"/>
+      <c r="G82" s="160"/>
+      <c r="H82" s="160"/>
+      <c r="I82" s="160"/>
+      <c r="J82" s="160"/>
+      <c r="K82" s="160"/>
+      <c r="L82" s="160"/>
+      <c r="M82" s="160"/>
+      <c r="N82" s="160"/>
+      <c r="O82" s="160"/>
+      <c r="P82" s="160"/>
       <c r="T82" s="147"/>
     </row>
-    <row r="83" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="154" t="s">
+    <row r="83" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A83" s="155" t="s">
         <v>265</v>
       </c>
-      <c r="B83" s="154"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
-      <c r="K83" s="154"/>
-      <c r="L83" s="154"/>
-      <c r="M83" s="154"/>
-      <c r="N83" s="154"/>
-      <c r="O83" s="154"/>
-      <c r="P83" s="154"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="155"/>
+      <c r="D83" s="155"/>
+      <c r="E83" s="155"/>
+      <c r="F83" s="155"/>
+      <c r="G83" s="155"/>
+      <c r="H83" s="155"/>
+      <c r="I83" s="155"/>
+      <c r="J83" s="155"/>
+      <c r="K83" s="155"/>
+      <c r="L83" s="155"/>
+      <c r="M83" s="155"/>
+      <c r="N83" s="155"/>
+      <c r="O83" s="155"/>
+      <c r="P83" s="155"/>
       <c r="T83" s="147"/>
     </row>
-    <row r="84" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="157" t="s">
+    <row r="84" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A84" s="158" t="s">
         <v>266</v>
       </c>
-      <c r="B84" s="157"/>
-      <c r="C84" s="157"/>
-      <c r="D84" s="157"/>
-      <c r="E84" s="157"/>
-      <c r="F84" s="157"/>
-      <c r="G84" s="157"/>
-      <c r="H84" s="157"/>
-      <c r="I84" s="157"/>
-      <c r="J84" s="157"/>
-      <c r="K84" s="157"/>
-      <c r="L84" s="157"/>
-      <c r="M84" s="157"/>
-      <c r="N84" s="157"/>
-      <c r="O84" s="157"/>
-      <c r="P84" s="157"/>
+      <c r="B84" s="158"/>
+      <c r="C84" s="158"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="158"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="158"/>
+      <c r="H84" s="158"/>
+      <c r="I84" s="158"/>
+      <c r="J84" s="158"/>
+      <c r="K84" s="158"/>
+      <c r="L84" s="158"/>
+      <c r="M84" s="158"/>
+      <c r="N84" s="158"/>
+      <c r="O84" s="158"/>
+      <c r="P84" s="158"/>
       <c r="T84" s="147"/>
     </row>
-    <row r="85" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="159" t="s">
+    <row r="85" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A85" s="160" t="s">
         <v>259</v>
       </c>
-      <c r="B85" s="159"/>
-      <c r="C85" s="159"/>
-      <c r="D85" s="159"/>
-      <c r="E85" s="159"/>
-      <c r="F85" s="159"/>
-      <c r="G85" s="159"/>
-      <c r="H85" s="159"/>
-      <c r="I85" s="159"/>
-      <c r="J85" s="159"/>
-      <c r="K85" s="159"/>
-      <c r="L85" s="159"/>
-      <c r="M85" s="159"/>
-      <c r="N85" s="159"/>
-      <c r="O85" s="159"/>
-      <c r="P85" s="159"/>
+      <c r="B85" s="160"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="160"/>
+      <c r="G85" s="160"/>
+      <c r="H85" s="160"/>
+      <c r="I85" s="160"/>
+      <c r="J85" s="160"/>
+      <c r="K85" s="160"/>
+      <c r="L85" s="160"/>
+      <c r="M85" s="160"/>
+      <c r="N85" s="160"/>
+      <c r="O85" s="160"/>
+      <c r="P85" s="160"/>
       <c r="T85" s="147"/>
     </row>
-    <row r="86" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="160" t="s">
+    <row r="86" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A86" s="161" t="s">
         <v>267</v>
       </c>
-      <c r="B86" s="160"/>
-      <c r="C86" s="160"/>
-      <c r="D86" s="160"/>
-      <c r="E86" s="160"/>
-      <c r="F86" s="160"/>
-      <c r="G86" s="160"/>
-      <c r="H86" s="160"/>
-      <c r="I86" s="160"/>
-      <c r="J86" s="160"/>
-      <c r="K86" s="160"/>
-      <c r="L86" s="160"/>
-      <c r="M86" s="160"/>
-      <c r="N86" s="160"/>
-      <c r="O86" s="160"/>
-      <c r="P86" s="160"/>
+      <c r="B86" s="161"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="161"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="161"/>
+      <c r="H86" s="161"/>
+      <c r="I86" s="161"/>
+      <c r="J86" s="161"/>
+      <c r="K86" s="161"/>
+      <c r="L86" s="161"/>
+      <c r="M86" s="161"/>
+      <c r="N86" s="161"/>
+      <c r="O86" s="161"/>
+      <c r="P86" s="161"/>
       <c r="T86" s="147"/>
     </row>
-    <row r="87" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="159" t="s">
+    <row r="87" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A87" s="160" t="s">
         <v>268</v>
       </c>
-      <c r="B87" s="159"/>
-      <c r="C87" s="159"/>
-      <c r="D87" s="159"/>
-      <c r="E87" s="159"/>
-      <c r="F87" s="159"/>
-      <c r="G87" s="159"/>
-      <c r="H87" s="159"/>
-      <c r="I87" s="159"/>
-      <c r="J87" s="159"/>
-      <c r="K87" s="159"/>
-      <c r="L87" s="159"/>
-      <c r="M87" s="159"/>
-      <c r="N87" s="159"/>
-      <c r="O87" s="159"/>
-      <c r="P87" s="159"/>
+      <c r="B87" s="160"/>
+      <c r="C87" s="160"/>
+      <c r="D87" s="160"/>
+      <c r="E87" s="160"/>
+      <c r="F87" s="160"/>
+      <c r="G87" s="160"/>
+      <c r="H87" s="160"/>
+      <c r="I87" s="160"/>
+      <c r="J87" s="160"/>
+      <c r="K87" s="160"/>
+      <c r="L87" s="160"/>
+      <c r="M87" s="160"/>
+      <c r="N87" s="160"/>
+      <c r="O87" s="160"/>
+      <c r="P87" s="160"/>
       <c r="T87" s="147"/>
     </row>
-    <row r="88" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="154" t="s">
+    <row r="88" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A88" s="155" t="s">
         <v>269</v>
       </c>
-      <c r="B88" s="154"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="154"/>
-      <c r="F88" s="154"/>
-      <c r="G88" s="154"/>
-      <c r="H88" s="154"/>
-      <c r="I88" s="154"/>
-      <c r="J88" s="154"/>
-      <c r="K88" s="154"/>
-      <c r="L88" s="154"/>
-      <c r="M88" s="154"/>
-      <c r="N88" s="154"/>
-      <c r="O88" s="154"/>
-      <c r="P88" s="154"/>
+      <c r="B88" s="155"/>
+      <c r="C88" s="155"/>
+      <c r="D88" s="155"/>
+      <c r="E88" s="155"/>
+      <c r="F88" s="155"/>
+      <c r="G88" s="155"/>
+      <c r="H88" s="155"/>
+      <c r="I88" s="155"/>
+      <c r="J88" s="155"/>
+      <c r="K88" s="155"/>
+      <c r="L88" s="155"/>
+      <c r="M88" s="155"/>
+      <c r="N88" s="155"/>
+      <c r="O88" s="155"/>
+      <c r="P88" s="155"/>
       <c r="T88" s="147"/>
     </row>
-    <row r="89" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="157" t="s">
+    <row r="89" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A89" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="157"/>
-      <c r="C89" s="157"/>
-      <c r="D89" s="157"/>
-      <c r="E89" s="157"/>
-      <c r="F89" s="157"/>
-      <c r="G89" s="157"/>
-      <c r="H89" s="157"/>
-      <c r="I89" s="157"/>
-      <c r="J89" s="157"/>
-      <c r="K89" s="157"/>
-      <c r="L89" s="157"/>
-      <c r="M89" s="157"/>
-      <c r="N89" s="157"/>
-      <c r="O89" s="157"/>
-      <c r="P89" s="157"/>
+      <c r="B89" s="158"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="158"/>
+      <c r="F89" s="158"/>
+      <c r="G89" s="158"/>
+      <c r="H89" s="158"/>
+      <c r="I89" s="158"/>
+      <c r="J89" s="158"/>
+      <c r="K89" s="158"/>
+      <c r="L89" s="158"/>
+      <c r="M89" s="158"/>
+      <c r="N89" s="158"/>
+      <c r="O89" s="158"/>
+      <c r="P89" s="158"/>
       <c r="T89" s="147"/>
     </row>
-    <row r="90" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="159" t="s">
+    <row r="90" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A90" s="160" t="s">
         <v>264</v>
       </c>
-      <c r="B90" s="159"/>
-      <c r="C90" s="159"/>
-      <c r="D90" s="159"/>
-      <c r="E90" s="159"/>
-      <c r="F90" s="159"/>
-      <c r="G90" s="159"/>
-      <c r="H90" s="159"/>
-      <c r="I90" s="159"/>
-      <c r="J90" s="159"/>
-      <c r="K90" s="159"/>
-      <c r="L90" s="159"/>
-      <c r="M90" s="159"/>
-      <c r="N90" s="159"/>
-      <c r="O90" s="159"/>
-      <c r="P90" s="159"/>
+      <c r="B90" s="160"/>
+      <c r="C90" s="160"/>
+      <c r="D90" s="160"/>
+      <c r="E90" s="160"/>
+      <c r="F90" s="160"/>
+      <c r="G90" s="160"/>
+      <c r="H90" s="160"/>
+      <c r="I90" s="160"/>
+      <c r="J90" s="160"/>
+      <c r="K90" s="160"/>
+      <c r="L90" s="160"/>
+      <c r="M90" s="160"/>
+      <c r="N90" s="160"/>
+      <c r="O90" s="160"/>
+      <c r="P90" s="160"/>
       <c r="T90" s="147"/>
     </row>
-    <row r="91" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="156" t="s">
+    <row r="91" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A91" s="157" t="s">
         <v>271</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
-      <c r="H91" s="156"/>
-      <c r="I91" s="156"/>
-      <c r="J91" s="156"/>
-      <c r="K91" s="156"/>
-      <c r="L91" s="156"/>
-      <c r="M91" s="156"/>
-      <c r="N91" s="156"/>
-      <c r="O91" s="156"/>
-      <c r="P91" s="156"/>
+      <c r="B91" s="157"/>
+      <c r="C91" s="157"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="157"/>
+      <c r="F91" s="157"/>
+      <c r="G91" s="157"/>
+      <c r="H91" s="157"/>
+      <c r="I91" s="157"/>
+      <c r="J91" s="157"/>
+      <c r="K91" s="157"/>
+      <c r="L91" s="157"/>
+      <c r="M91" s="157"/>
+      <c r="N91" s="157"/>
+      <c r="O91" s="157"/>
+      <c r="P91" s="157"/>
       <c r="T91" s="147"/>
     </row>
-    <row r="92" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="155" t="s">
+    <row r="92" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A92" s="156" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="155"/>
-      <c r="C92" s="155"/>
-      <c r="D92" s="155"/>
-      <c r="E92" s="155"/>
-      <c r="F92" s="155"/>
-      <c r="G92" s="155"/>
-      <c r="H92" s="155"/>
-      <c r="I92" s="155"/>
-      <c r="J92" s="155"/>
-      <c r="K92" s="155"/>
-      <c r="L92" s="155"/>
-      <c r="M92" s="155"/>
-      <c r="N92" s="155"/>
-      <c r="O92" s="155"/>
-      <c r="P92" s="155"/>
+      <c r="B92" s="156"/>
+      <c r="C92" s="156"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="156"/>
+      <c r="F92" s="156"/>
+      <c r="G92" s="156"/>
+      <c r="H92" s="156"/>
+      <c r="I92" s="156"/>
+      <c r="J92" s="156"/>
+      <c r="K92" s="156"/>
+      <c r="L92" s="156"/>
+      <c r="M92" s="156"/>
+      <c r="N92" s="156"/>
+      <c r="O92" s="156"/>
+      <c r="P92" s="156"/>
       <c r="T92" s="147"/>
     </row>
-    <row r="93" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="155" t="s">
+    <row r="93" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A93" s="156" t="s">
         <v>273</v>
       </c>
-      <c r="B93" s="155"/>
-      <c r="C93" s="155"/>
-      <c r="D93" s="155"/>
-      <c r="E93" s="155"/>
-      <c r="F93" s="155"/>
-      <c r="G93" s="155"/>
-      <c r="H93" s="155"/>
-      <c r="I93" s="155"/>
-      <c r="J93" s="155"/>
-      <c r="K93" s="155"/>
-      <c r="L93" s="155"/>
-      <c r="M93" s="155"/>
-      <c r="N93" s="155"/>
-      <c r="O93" s="155"/>
-      <c r="P93" s="155"/>
+      <c r="B93" s="156"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="156"/>
+      <c r="E93" s="156"/>
+      <c r="F93" s="156"/>
+      <c r="G93" s="156"/>
+      <c r="H93" s="156"/>
+      <c r="I93" s="156"/>
+      <c r="J93" s="156"/>
+      <c r="K93" s="156"/>
+      <c r="L93" s="156"/>
+      <c r="M93" s="156"/>
+      <c r="N93" s="156"/>
+      <c r="O93" s="156"/>
+      <c r="P93" s="156"/>
       <c r="T93" s="147"/>
     </row>
-    <row r="94" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="156" t="s">
+    <row r="94" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A94" s="157" t="s">
         <v>274</v>
       </c>
-      <c r="B94" s="156"/>
-      <c r="C94" s="156"/>
-      <c r="D94" s="156"/>
-      <c r="E94" s="156"/>
-      <c r="F94" s="156"/>
-      <c r="G94" s="156"/>
-      <c r="H94" s="156"/>
-      <c r="I94" s="156"/>
-      <c r="J94" s="156"/>
-      <c r="K94" s="156"/>
-      <c r="L94" s="156"/>
-      <c r="M94" s="156"/>
-      <c r="N94" s="156"/>
-      <c r="O94" s="156"/>
-      <c r="P94" s="156"/>
+      <c r="B94" s="157"/>
+      <c r="C94" s="157"/>
+      <c r="D94" s="157"/>
+      <c r="E94" s="157"/>
+      <c r="F94" s="157"/>
+      <c r="G94" s="157"/>
+      <c r="H94" s="157"/>
+      <c r="I94" s="157"/>
+      <c r="J94" s="157"/>
+      <c r="K94" s="157"/>
+      <c r="L94" s="157"/>
+      <c r="M94" s="157"/>
+      <c r="N94" s="157"/>
+      <c r="O94" s="157"/>
+      <c r="P94" s="157"/>
       <c r="T94" s="147"/>
     </row>
-    <row r="95" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="155" t="s">
+    <row r="95" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A95" s="156" t="s">
         <v>275</v>
       </c>
-      <c r="B95" s="155"/>
-      <c r="C95" s="155"/>
-      <c r="D95" s="155"/>
-      <c r="E95" s="155"/>
-      <c r="F95" s="155"/>
-      <c r="G95" s="155"/>
-      <c r="H95" s="155"/>
-      <c r="I95" s="155"/>
-      <c r="J95" s="155"/>
-      <c r="K95" s="155"/>
-      <c r="L95" s="155"/>
-      <c r="M95" s="155"/>
-      <c r="N95" s="155"/>
-      <c r="O95" s="155"/>
-      <c r="P95" s="155"/>
+      <c r="B95" s="156"/>
+      <c r="C95" s="156"/>
+      <c r="D95" s="156"/>
+      <c r="E95" s="156"/>
+      <c r="F95" s="156"/>
+      <c r="G95" s="156"/>
+      <c r="H95" s="156"/>
+      <c r="I95" s="156"/>
+      <c r="J95" s="156"/>
+      <c r="K95" s="156"/>
+      <c r="L95" s="156"/>
+      <c r="M95" s="156"/>
+      <c r="N95" s="156"/>
+      <c r="O95" s="156"/>
+      <c r="P95" s="156"/>
       <c r="T95" s="147"/>
     </row>
-    <row r="96" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="156" t="s">
+    <row r="96" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A96" s="157" t="s">
         <v>276</v>
       </c>
-      <c r="B96" s="156"/>
-      <c r="C96" s="156"/>
-      <c r="D96" s="156"/>
-      <c r="E96" s="156"/>
-      <c r="F96" s="156"/>
-      <c r="G96" s="156"/>
-      <c r="H96" s="156"/>
-      <c r="I96" s="156"/>
-      <c r="J96" s="156"/>
-      <c r="K96" s="156"/>
-      <c r="L96" s="156"/>
-      <c r="M96" s="156"/>
-      <c r="N96" s="156"/>
-      <c r="O96" s="156"/>
-      <c r="P96" s="156"/>
+      <c r="B96" s="157"/>
+      <c r="C96" s="157"/>
+      <c r="D96" s="157"/>
+      <c r="E96" s="157"/>
+      <c r="F96" s="157"/>
+      <c r="G96" s="157"/>
+      <c r="H96" s="157"/>
+      <c r="I96" s="157"/>
+      <c r="J96" s="157"/>
+      <c r="K96" s="157"/>
+      <c r="L96" s="157"/>
+      <c r="M96" s="157"/>
+      <c r="N96" s="157"/>
+      <c r="O96" s="157"/>
+      <c r="P96" s="157"/>
       <c r="T96" s="147"/>
     </row>
-    <row r="97" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="154" t="s">
+    <row r="97" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A97" s="155" t="s">
         <v>277</v>
       </c>
-      <c r="B97" s="154"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="154"/>
-      <c r="H97" s="154"/>
-      <c r="I97" s="154"/>
-      <c r="J97" s="154"/>
-      <c r="K97" s="154"/>
-      <c r="L97" s="154"/>
-      <c r="M97" s="154"/>
-      <c r="N97" s="154"/>
-      <c r="O97" s="154"/>
-      <c r="P97" s="154"/>
+      <c r="B97" s="155"/>
+      <c r="C97" s="155"/>
+      <c r="D97" s="155"/>
+      <c r="E97" s="155"/>
+      <c r="F97" s="155"/>
+      <c r="G97" s="155"/>
+      <c r="H97" s="155"/>
+      <c r="I97" s="155"/>
+      <c r="J97" s="155"/>
+      <c r="K97" s="155"/>
+      <c r="L97" s="155"/>
+      <c r="M97" s="155"/>
+      <c r="N97" s="155"/>
+      <c r="O97" s="155"/>
+      <c r="P97" s="155"/>
       <c r="T97" s="147"/>
     </row>
-    <row r="98" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="155" t="s">
+    <row r="98" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A98" s="156" t="s">
         <v>278</v>
       </c>
-      <c r="B98" s="155"/>
-      <c r="C98" s="155"/>
-      <c r="D98" s="155"/>
-      <c r="E98" s="155"/>
-      <c r="F98" s="155"/>
-      <c r="G98" s="155"/>
-      <c r="H98" s="155"/>
-      <c r="I98" s="155"/>
-      <c r="J98" s="155"/>
-      <c r="K98" s="155"/>
-      <c r="L98" s="155"/>
-      <c r="M98" s="155"/>
-      <c r="N98" s="155"/>
-      <c r="O98" s="155"/>
-      <c r="P98" s="155"/>
+      <c r="B98" s="156"/>
+      <c r="C98" s="156"/>
+      <c r="D98" s="156"/>
+      <c r="E98" s="156"/>
+      <c r="F98" s="156"/>
+      <c r="G98" s="156"/>
+      <c r="H98" s="156"/>
+      <c r="I98" s="156"/>
+      <c r="J98" s="156"/>
+      <c r="K98" s="156"/>
+      <c r="L98" s="156"/>
+      <c r="M98" s="156"/>
+      <c r="N98" s="156"/>
+      <c r="O98" s="156"/>
+      <c r="P98" s="156"/>
       <c r="T98" s="147"/>
     </row>
-    <row r="99" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="155" t="s">
+    <row r="99" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A99" s="156" t="s">
         <v>279</v>
       </c>
-      <c r="B99" s="155"/>
-      <c r="C99" s="155"/>
-      <c r="D99" s="155"/>
-      <c r="E99" s="155"/>
-      <c r="F99" s="155"/>
-      <c r="G99" s="155"/>
-      <c r="H99" s="155"/>
-      <c r="I99" s="155"/>
-      <c r="J99" s="155"/>
-      <c r="K99" s="155"/>
-      <c r="L99" s="155"/>
-      <c r="M99" s="155"/>
-      <c r="N99" s="155"/>
-      <c r="O99" s="155"/>
-      <c r="P99" s="155"/>
+      <c r="B99" s="156"/>
+      <c r="C99" s="156"/>
+      <c r="D99" s="156"/>
+      <c r="E99" s="156"/>
+      <c r="F99" s="156"/>
+      <c r="G99" s="156"/>
+      <c r="H99" s="156"/>
+      <c r="I99" s="156"/>
+      <c r="J99" s="156"/>
+      <c r="K99" s="156"/>
+      <c r="L99" s="156"/>
+      <c r="M99" s="156"/>
+      <c r="N99" s="156"/>
+      <c r="O99" s="156"/>
+      <c r="P99" s="156"/>
       <c r="T99" s="147"/>
     </row>
-    <row r="100" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="155" t="s">
+    <row r="100" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A100" s="156" t="s">
         <v>280</v>
       </c>
-      <c r="B100" s="155"/>
-      <c r="C100" s="155"/>
-      <c r="D100" s="155"/>
-      <c r="E100" s="155"/>
-      <c r="F100" s="155"/>
-      <c r="G100" s="155"/>
-      <c r="H100" s="155"/>
-      <c r="I100" s="155"/>
-      <c r="J100" s="155"/>
-      <c r="K100" s="155"/>
-      <c r="L100" s="155"/>
-      <c r="M100" s="155"/>
-      <c r="N100" s="155"/>
-      <c r="O100" s="155"/>
-      <c r="P100" s="155"/>
+      <c r="B100" s="156"/>
+      <c r="C100" s="156"/>
+      <c r="D100" s="156"/>
+      <c r="E100" s="156"/>
+      <c r="F100" s="156"/>
+      <c r="G100" s="156"/>
+      <c r="H100" s="156"/>
+      <c r="I100" s="156"/>
+      <c r="J100" s="156"/>
+      <c r="K100" s="156"/>
+      <c r="L100" s="156"/>
+      <c r="M100" s="156"/>
+      <c r="N100" s="156"/>
+      <c r="O100" s="156"/>
+      <c r="P100" s="156"/>
       <c r="T100" s="147"/>
     </row>
-    <row r="101" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="156" t="s">
+    <row r="101" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A101" s="157" t="s">
         <v>281</v>
       </c>
-      <c r="B101" s="156"/>
-      <c r="C101" s="156"/>
-      <c r="D101" s="156"/>
-      <c r="E101" s="156"/>
-      <c r="F101" s="156"/>
-      <c r="G101" s="156"/>
-      <c r="H101" s="156"/>
-      <c r="I101" s="156"/>
-      <c r="J101" s="156"/>
-      <c r="K101" s="156"/>
-      <c r="L101" s="156"/>
-      <c r="M101" s="156"/>
-      <c r="N101" s="156"/>
-      <c r="O101" s="156"/>
-      <c r="P101" s="156"/>
+      <c r="B101" s="157"/>
+      <c r="C101" s="157"/>
+      <c r="D101" s="157"/>
+      <c r="E101" s="157"/>
+      <c r="F101" s="157"/>
+      <c r="G101" s="157"/>
+      <c r="H101" s="157"/>
+      <c r="I101" s="157"/>
+      <c r="J101" s="157"/>
+      <c r="K101" s="157"/>
+      <c r="L101" s="157"/>
+      <c r="M101" s="157"/>
+      <c r="N101" s="157"/>
+      <c r="O101" s="157"/>
+      <c r="P101" s="157"/>
       <c r="T101" s="147"/>
     </row>
-    <row r="102" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="154" t="s">
+    <row r="102" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A102" s="155" t="s">
         <v>282</v>
       </c>
-      <c r="B102" s="154"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="154"/>
-      <c r="E102" s="154"/>
-      <c r="F102" s="154"/>
-      <c r="G102" s="154"/>
-      <c r="H102" s="154"/>
-      <c r="I102" s="154"/>
-      <c r="J102" s="154"/>
-      <c r="K102" s="154"/>
-      <c r="L102" s="154"/>
-      <c r="M102" s="154"/>
-      <c r="N102" s="154"/>
-      <c r="O102" s="154"/>
-      <c r="P102" s="154"/>
+      <c r="B102" s="155"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="155"/>
+      <c r="E102" s="155"/>
+      <c r="F102" s="155"/>
+      <c r="G102" s="155"/>
+      <c r="H102" s="155"/>
+      <c r="I102" s="155"/>
+      <c r="J102" s="155"/>
+      <c r="K102" s="155"/>
+      <c r="L102" s="155"/>
+      <c r="M102" s="155"/>
+      <c r="N102" s="155"/>
+      <c r="O102" s="155"/>
+      <c r="P102" s="155"/>
       <c r="T102" s="147"/>
     </row>
-    <row r="103" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="157" t="s">
+    <row r="103" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1">
+      <c r="A103" s="158" t="s">
         <v>283</v>
       </c>
-      <c r="B103" s="157"/>
-      <c r="C103" s="157"/>
-      <c r="D103" s="157"/>
-      <c r="E103" s="157"/>
-      <c r="F103" s="157"/>
-      <c r="G103" s="157"/>
-      <c r="H103" s="157"/>
-      <c r="I103" s="157"/>
-      <c r="J103" s="157"/>
-      <c r="K103" s="157"/>
-      <c r="L103" s="157"/>
-      <c r="M103" s="157"/>
-      <c r="N103" s="157"/>
-      <c r="O103" s="157"/>
-      <c r="P103" s="157"/>
+      <c r="B103" s="158"/>
+      <c r="C103" s="158"/>
+      <c r="D103" s="158"/>
+      <c r="E103" s="158"/>
+      <c r="F103" s="158"/>
+      <c r="G103" s="158"/>
+      <c r="H103" s="158"/>
+      <c r="I103" s="158"/>
+      <c r="J103" s="158"/>
+      <c r="K103" s="158"/>
+      <c r="L103" s="158"/>
+      <c r="M103" s="158"/>
+      <c r="N103" s="158"/>
+      <c r="O103" s="158"/>
+      <c r="P103" s="158"/>
       <c r="T103" s="147"/>
     </row>
-    <row r="104" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="154" t="s">
+    <row r="104" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A104" s="155" t="s">
         <v>284</v>
       </c>
-      <c r="B104" s="154"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="154"/>
-      <c r="I104" s="154"/>
-      <c r="J104" s="154"/>
-      <c r="K104" s="154"/>
-      <c r="L104" s="154"/>
-      <c r="M104" s="154"/>
-      <c r="N104" s="154"/>
-      <c r="O104" s="154"/>
-      <c r="P104" s="154"/>
+      <c r="B104" s="155"/>
+      <c r="C104" s="155"/>
+      <c r="D104" s="155"/>
+      <c r="E104" s="155"/>
+      <c r="F104" s="155"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="155"/>
+      <c r="I104" s="155"/>
+      <c r="J104" s="155"/>
+      <c r="K104" s="155"/>
+      <c r="L104" s="155"/>
+      <c r="M104" s="155"/>
+      <c r="N104" s="155"/>
+      <c r="O104" s="155"/>
+      <c r="P104" s="155"/>
       <c r="T104" s="147"/>
     </row>
-    <row r="105" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="158" t="s">
+    <row r="105" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A105" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="B105" s="158"/>
-      <c r="C105" s="158"/>
-      <c r="D105" s="158"/>
-      <c r="E105" s="158"/>
-      <c r="F105" s="158"/>
-      <c r="G105" s="158"/>
-      <c r="H105" s="158"/>
-      <c r="I105" s="158"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="158"/>
-      <c r="L105" s="158"/>
-      <c r="M105" s="158"/>
-      <c r="N105" s="158"/>
-      <c r="O105" s="158"/>
-      <c r="P105" s="158"/>
+      <c r="B105" s="159"/>
+      <c r="C105" s="159"/>
+      <c r="D105" s="159"/>
+      <c r="E105" s="159"/>
+      <c r="F105" s="159"/>
+      <c r="G105" s="159"/>
+      <c r="H105" s="159"/>
+      <c r="I105" s="159"/>
+      <c r="J105" s="159"/>
+      <c r="K105" s="159"/>
+      <c r="L105" s="159"/>
+      <c r="M105" s="159"/>
+      <c r="N105" s="159"/>
+      <c r="O105" s="159"/>
+      <c r="P105" s="159"/>
       <c r="T105" s="147"/>
     </row>
-    <row r="106" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="153" t="s">
+    <row r="106" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A106" s="154" t="s">
         <v>286</v>
       </c>
-      <c r="B106" s="153"/>
-      <c r="C106" s="153"/>
-      <c r="D106" s="153"/>
-      <c r="E106" s="153"/>
-      <c r="F106" s="153"/>
-      <c r="G106" s="153"/>
-      <c r="H106" s="153"/>
-      <c r="I106" s="153"/>
-      <c r="J106" s="153"/>
-      <c r="K106" s="153"/>
-      <c r="L106" s="153"/>
-      <c r="M106" s="153"/>
-      <c r="N106" s="153"/>
-      <c r="O106" s="153"/>
-      <c r="P106" s="153"/>
+      <c r="B106" s="154"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="154"/>
+      <c r="F106" s="154"/>
+      <c r="G106" s="154"/>
+      <c r="H106" s="154"/>
+      <c r="I106" s="154"/>
+      <c r="J106" s="154"/>
+      <c r="K106" s="154"/>
+      <c r="L106" s="154"/>
+      <c r="M106" s="154"/>
+      <c r="N106" s="154"/>
+      <c r="O106" s="154"/>
+      <c r="P106" s="154"/>
       <c r="T106" s="147"/>
     </row>
-    <row r="107" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="154" t="s">
+    <row r="107" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A107" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="B107" s="154"/>
-      <c r="C107" s="154"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="154"/>
-      <c r="F107" s="154"/>
-      <c r="G107" s="154"/>
-      <c r="H107" s="154"/>
-      <c r="I107" s="154"/>
-      <c r="J107" s="154"/>
-      <c r="K107" s="154"/>
-      <c r="L107" s="154"/>
-      <c r="M107" s="154"/>
-      <c r="N107" s="154"/>
-      <c r="O107" s="154"/>
-      <c r="P107" s="154"/>
+      <c r="B107" s="155"/>
+      <c r="C107" s="155"/>
+      <c r="D107" s="155"/>
+      <c r="E107" s="155"/>
+      <c r="F107" s="155"/>
+      <c r="G107" s="155"/>
+      <c r="H107" s="155"/>
+      <c r="I107" s="155"/>
+      <c r="J107" s="155"/>
+      <c r="K107" s="155"/>
+      <c r="L107" s="155"/>
+      <c r="M107" s="155"/>
+      <c r="N107" s="155"/>
+      <c r="O107" s="155"/>
+      <c r="P107" s="155"/>
       <c r="T107" s="147"/>
     </row>
-    <row r="108" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="155" t="s">
+    <row r="108" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A108" s="156" t="s">
         <v>288</v>
       </c>
-      <c r="B108" s="155"/>
-      <c r="C108" s="155"/>
-      <c r="D108" s="155"/>
-      <c r="E108" s="155"/>
-      <c r="F108" s="155"/>
-      <c r="G108" s="155"/>
-      <c r="H108" s="155"/>
-      <c r="I108" s="155"/>
-      <c r="J108" s="155"/>
-      <c r="K108" s="155"/>
-      <c r="L108" s="155"/>
-      <c r="M108" s="155"/>
-      <c r="N108" s="155"/>
-      <c r="O108" s="155"/>
-      <c r="P108" s="155"/>
+      <c r="B108" s="156"/>
+      <c r="C108" s="156"/>
+      <c r="D108" s="156"/>
+      <c r="E108" s="156"/>
+      <c r="F108" s="156"/>
+      <c r="G108" s="156"/>
+      <c r="H108" s="156"/>
+      <c r="I108" s="156"/>
+      <c r="J108" s="156"/>
+      <c r="K108" s="156"/>
+      <c r="L108" s="156"/>
+      <c r="M108" s="156"/>
+      <c r="N108" s="156"/>
+      <c r="O108" s="156"/>
+      <c r="P108" s="156"/>
       <c r="T108" s="147"/>
     </row>
   </sheetData>
@@ -10428,66 +10478,66 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="19" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="176" t="s">
+    <row r="4" spans="1:15" ht="16" thickBot="1">
+      <c r="B4" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="178" t="s">
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="178" t="s">
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="179"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="181" t="s">
+      <c r="M4" s="180"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="182" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="177"/>
+    <row r="5" spans="1:15" ht="43" thickBot="1">
+      <c r="B5" s="178"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
@@ -10524,9 +10574,9 @@
       <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="182"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="183"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="B6" s="10" t="s">
         <v>45</v>
       </c>
@@ -10570,7 +10620,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="16" t="s">
         <v>46</v>
       </c>
@@ -10614,7 +10664,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="16" t="s">
         <v>47</v>
       </c>
@@ -10658,7 +10708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="16" t="s">
         <v>48</v>
       </c>
@@ -10702,7 +10752,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="16" t="s">
         <v>49</v>
       </c>
@@ -10746,7 +10796,7 @@
         <v>43399</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="16" t="s">
         <v>50</v>
       </c>
@@ -10790,7 +10840,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="16" t="s">
         <v>51</v>
       </c>
@@ -10834,7 +10884,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="B13" s="16" t="s">
         <v>52</v>
       </c>
@@ -10878,7 +10928,7 @@
         <v>14644</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="16" t="s">
         <v>53</v>
       </c>
@@ -10922,7 +10972,7 @@
         <v>4827</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" s="16" t="s">
         <v>54</v>
       </c>
@@ -10966,7 +11016,7 @@
         <v>56534</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="B16" s="16" t="s">
         <v>55</v>
       </c>
@@ -11010,7 +11060,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="16" t="s">
         <v>56</v>
       </c>
@@ -11054,7 +11104,7 @@
         <v>40111</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="16" t="s">
         <v>57</v>
       </c>
@@ -11098,7 +11148,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="16" t="s">
         <v>58</v>
       </c>
@@ -11142,7 +11192,7 @@
         <v>12267</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="16" t="s">
         <v>59</v>
       </c>
@@ -11186,7 +11236,7 @@
         <v>33645</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="16" t="s">
         <v>60</v>
       </c>
@@ -11230,7 +11280,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="16" t="s">
         <v>61</v>
       </c>
@@ -11274,7 +11324,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="16" t="s">
         <v>62</v>
       </c>
@@ -11318,7 +11368,7 @@
         <v>16421</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="16" t="s">
         <v>63</v>
       </c>
@@ -11362,7 +11412,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="16" t="s">
         <v>64</v>
       </c>
@@ -11406,7 +11456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="16" t="s">
         <v>65</v>
       </c>
@@ -11450,7 +11500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="16" t="s">
         <v>66</v>
       </c>
@@ -11494,7 +11544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="16" t="s">
         <v>67</v>
       </c>
@@ -11538,7 +11588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="B29" s="16" t="s">
         <v>68</v>
       </c>
@@ -11582,7 +11632,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="B30" s="16" t="s">
         <v>69</v>
       </c>
@@ -11626,7 +11676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="B31" s="16" t="s">
         <v>70</v>
       </c>
@@ -11670,7 +11720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="B32" s="16" t="s">
         <v>71</v>
       </c>
@@ -11714,7 +11764,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17">
       <c r="B33" s="16" t="s">
         <v>72</v>
       </c>
@@ -11758,7 +11808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17">
       <c r="B34" s="16" t="s">
         <v>73</v>
       </c>
@@ -11802,7 +11852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17">
       <c r="B35" s="16" t="s">
         <v>74</v>
       </c>
@@ -11846,7 +11896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17">
       <c r="B36" s="16" t="s">
         <v>75</v>
       </c>
@@ -11890,7 +11940,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17">
       <c r="B37" s="16" t="s">
         <v>76</v>
       </c>
@@ -11934,7 +11984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17">
       <c r="B38" s="16" t="s">
         <v>77</v>
       </c>
@@ -11978,7 +12028,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17">
       <c r="B39" s="16" t="s">
         <v>78</v>
       </c>
@@ -12022,7 +12072,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17">
       <c r="B40" s="16" t="s">
         <v>79</v>
       </c>
@@ -12066,7 +12116,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17">
       <c r="B41" s="16" t="s">
         <v>80</v>
       </c>
@@ -12110,7 +12160,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17">
       <c r="B42" s="16" t="s">
         <v>81</v>
       </c>
@@ -12154,7 +12204,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17">
       <c r="B43" s="16" t="s">
         <v>82</v>
       </c>
@@ -12198,7 +12248,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17">
       <c r="B44" s="16" t="s">
         <v>83</v>
       </c>
@@ -12243,7 +12293,7 @@
       </c>
       <c r="Q44" s="23"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17">
       <c r="B45" s="24" t="s">
         <v>84</v>
       </c>
@@ -12288,7 +12338,7 @@
       </c>
       <c r="Q45" s="30"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17">
       <c r="B46" s="16" t="s">
         <v>85</v>
       </c>
@@ -12332,7 +12382,7 @@
         <v>8634</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17">
       <c r="B47" s="16" t="s">
         <v>86</v>
       </c>
@@ -12376,7 +12426,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17">
       <c r="B48" s="16" t="s">
         <v>87</v>
       </c>
@@ -12420,7 +12470,7 @@
         <v>50897</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15">
       <c r="B49" s="16" t="s">
         <v>88</v>
       </c>
@@ -12464,7 +12514,7 @@
         <v>78680</v>
       </c>
     </row>
-    <row r="50" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" s="5" customFormat="1" ht="13">
       <c r="B50" s="16" t="s">
         <v>89</v>
       </c>
@@ -12508,7 +12558,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="51" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15" s="5" customFormat="1" ht="13">
       <c r="B51" s="16" t="s">
         <v>90</v>
       </c>
@@ -12552,7 +12602,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15">
       <c r="B52" s="24" t="s">
         <v>91</v>
       </c>
@@ -12596,7 +12646,7 @@
         <v>195468</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15">
       <c r="B53" s="16" t="s">
         <v>92</v>
       </c>
@@ -12640,7 +12690,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="54" spans="2:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15" s="5" customFormat="1" ht="13">
       <c r="B54" s="24" t="s">
         <v>93</v>
       </c>
@@ -12684,7 +12734,7 @@
         <v>210331</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15">
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
@@ -12700,7 +12750,7 @@
       <c r="N55" s="41"/>
       <c r="O55" s="42"/>
     </row>
-    <row r="56" spans="2:15" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" s="5" customFormat="1" ht="14" thickBot="1">
       <c r="B56" s="43" t="s">
         <v>94</v>
       </c>
@@ -12744,17 +12794,17 @@
         <v>659858</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15">
       <c r="B58" s="49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15">
       <c r="B59" s="49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15">
       <c r="B60" s="49" t="s">
         <v>95</v>
       </c>
@@ -12772,24 +12822,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="71" t="s">
         <v>117</v>
       </c>
@@ -12798,7 +12848,7 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="72" t="s">
         <v>118</v>
       </c>
@@ -12811,7 +12861,7 @@
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="73">
         <v>0.21299999999999999</v>
       </c>
@@ -12823,25 +12873,25 @@
         <v>0.44899999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="70"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <f>Population!B13</f>
         <v>311582564</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="70"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="75">
         <f>A8/1000*C5</f>
         <v>139900.57123599999</v>
@@ -12854,25 +12904,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="77" t="s">
         <v>135</v>
       </c>
@@ -12880,7 +12930,7 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>128</v>
       </c>
@@ -12892,7 +12942,7 @@
       </c>
       <c r="D4" s="70"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="73">
         <v>286180</v>
       </c>
@@ -12903,7 +12953,7 @@
         <v>11162</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>137</v>
       </c>
@@ -12911,7 +12961,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="73">
         <v>2007</v>
       </c>
@@ -12920,7 +12970,7 @@
         <v>301579895</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="73">
         <v>2011</v>
       </c>
@@ -12929,7 +12979,7 @@
         <v>311582564</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="77" t="s">
         <v>138</v>
       </c>
@@ -12937,7 +12987,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>128</v>
       </c>
@@ -12949,7 +12999,7 @@
       </c>
       <c r="D12" s="70"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="79">
         <f>A5*($B9/$B8)</f>
         <v>295671.89207198308</v>
@@ -12963,7 +13013,7 @@
         <v>11532.216295015289</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -12974,48 +13024,48 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="87.5703125" customWidth="1"/>
+    <col min="2" max="2" width="87.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="70"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="73">
         <v>233000</v>
       </c>

--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/trans/fovobe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/fovobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51308CF6-AAEC-3347-8023-E644FE79A712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4E4E6D-4E2B-8540-B59A-7AAE59C85CC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3435,35 +3435,37 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3478,32 +3480,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3526,6 +3525,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Data_Sheet1 (2)_1" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3885,7 +3885,7 @@
       <c r="A1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="153">
+      <c r="C1" s="183">
         <v>44307</v>
       </c>
     </row>
@@ -5861,39 +5861,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
     </row>
     <row r="2" spans="1:31" s="128" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="50"/>
@@ -8817,24 +8817,24 @@
       </c>
     </row>
     <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="174" t="s">
+      <c r="A35" s="155" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="174"/>
-      <c r="M35" s="174"/>
-      <c r="N35" s="174"/>
-      <c r="O35" s="174"/>
-      <c r="P35" s="174"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="155"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
@@ -8851,395 +8851,395 @@
       <c r="AE35" s="127"/>
     </row>
     <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="175"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="175"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="175"/>
-      <c r="M36" s="175"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="175"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156"/>
+      <c r="N36" s="156"/>
+      <c r="O36" s="156"/>
+      <c r="P36" s="156"/>
       <c r="Q36" s="140"/>
       <c r="R36" s="141"/>
       <c r="S36" s="141"/>
       <c r="T36" s="142"/>
     </row>
     <row r="37" spans="1:31" s="145" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A37" s="176" t="s">
+      <c r="A37" s="157" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
-      <c r="L37" s="176"/>
-      <c r="M37" s="176"/>
-      <c r="N37" s="176"/>
-      <c r="O37" s="176"/>
-      <c r="P37" s="176"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
       <c r="Q37" s="143"/>
       <c r="R37" s="143"/>
       <c r="S37" s="143"/>
       <c r="T37" s="144"/>
     </row>
     <row r="38" spans="1:31" s="145" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A38" s="171" t="s">
+      <c r="A38" s="158" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="171"/>
-      <c r="O38" s="171"/>
-      <c r="P38" s="171"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="158"/>
+      <c r="L38" s="158"/>
+      <c r="M38" s="158"/>
+      <c r="N38" s="158"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="158"/>
       <c r="Q38" s="143"/>
       <c r="R38" s="143"/>
       <c r="S38" s="143"/>
       <c r="T38" s="144"/>
     </row>
     <row r="39" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="172" t="s">
+      <c r="A39" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-      <c r="P39" s="172"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="153"/>
+      <c r="P39" s="153"/>
       <c r="Q39" s="143"/>
       <c r="R39" s="143"/>
       <c r="S39" s="143"/>
       <c r="T39" s="144"/>
     </row>
     <row r="40" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="170"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
-      <c r="M40" s="170"/>
-      <c r="N40" s="170"/>
-      <c r="O40" s="170"/>
-      <c r="P40" s="170"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
+      <c r="K40" s="160"/>
+      <c r="L40" s="160"/>
+      <c r="M40" s="160"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="160"/>
+      <c r="P40" s="160"/>
       <c r="Q40" s="143"/>
       <c r="R40" s="143"/>
       <c r="S40" s="143"/>
       <c r="T40" s="144"/>
     </row>
     <row r="41" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A41" s="170" t="s">
+      <c r="A41" s="160" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170"/>
-      <c r="M41" s="170"/>
-      <c r="N41" s="170"/>
-      <c r="O41" s="170"/>
-      <c r="P41" s="170"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="160"/>
+      <c r="L41" s="160"/>
+      <c r="M41" s="160"/>
+      <c r="N41" s="160"/>
+      <c r="O41" s="160"/>
+      <c r="P41" s="160"/>
       <c r="Q41" s="143"/>
       <c r="R41" s="143"/>
       <c r="S41" s="143"/>
       <c r="T41" s="144"/>
     </row>
     <row r="42" spans="1:31" s="145" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="171" t="s">
+      <c r="A42" s="158" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
-      <c r="L42" s="171"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="171"/>
-      <c r="O42" s="171"/>
-      <c r="P42" s="171"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
+      <c r="O42" s="158"/>
+      <c r="P42" s="158"/>
       <c r="T42" s="144"/>
     </row>
     <row r="43" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="153" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="172"/>
-      <c r="O43" s="172"/>
-      <c r="P43" s="172"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
+      <c r="N43" s="153"/>
+      <c r="O43" s="153"/>
+      <c r="P43" s="153"/>
       <c r="T43" s="144"/>
     </row>
     <row r="44" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="153" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="172"/>
-      <c r="O44" s="172"/>
-      <c r="P44" s="172"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="153"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="153"/>
+      <c r="N44" s="153"/>
+      <c r="O44" s="153"/>
+      <c r="P44" s="153"/>
       <c r="T44" s="144"/>
     </row>
     <row r="45" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="163"/>
-      <c r="K45" s="163"/>
-      <c r="L45" s="163"/>
-      <c r="M45" s="163"/>
-      <c r="N45" s="163"/>
-      <c r="O45" s="163"/>
-      <c r="P45" s="163"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161"/>
+      <c r="L45" s="161"/>
+      <c r="M45" s="161"/>
+      <c r="N45" s="161"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="161"/>
       <c r="T45" s="144"/>
     </row>
     <row r="46" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="160" t="s">
         <v>230</v>
       </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="170"/>
-      <c r="L46" s="170"/>
-      <c r="M46" s="170"/>
-      <c r="N46" s="170"/>
-      <c r="O46" s="170"/>
-      <c r="P46" s="170"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
+      <c r="L46" s="160"/>
+      <c r="M46" s="160"/>
+      <c r="N46" s="160"/>
+      <c r="O46" s="160"/>
+      <c r="P46" s="160"/>
       <c r="T46" s="144"/>
     </row>
     <row r="47" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A47" s="170" t="s">
+      <c r="A47" s="160" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="170"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="170"/>
-      <c r="O47" s="170"/>
-      <c r="P47" s="170"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
+      <c r="K47" s="160"/>
+      <c r="L47" s="160"/>
+      <c r="M47" s="160"/>
+      <c r="N47" s="160"/>
+      <c r="O47" s="160"/>
+      <c r="P47" s="160"/>
       <c r="T47" s="144"/>
     </row>
     <row r="48" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A48" s="170" t="s">
+      <c r="A48" s="160" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="170"/>
-      <c r="M48" s="170"/>
-      <c r="N48" s="170"/>
-      <c r="O48" s="170"/>
-      <c r="P48" s="170"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
+      <c r="K48" s="160"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="160"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="160"/>
+      <c r="P48" s="160"/>
       <c r="T48" s="144"/>
     </row>
     <row r="49" spans="1:20" s="145" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A49" s="170" t="s">
+      <c r="A49" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
-      <c r="J49" s="170"/>
-      <c r="K49" s="170"/>
-      <c r="L49" s="170"/>
-      <c r="M49" s="170"/>
-      <c r="N49" s="170"/>
-      <c r="O49" s="170"/>
-      <c r="P49" s="170"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="160"/>
+      <c r="N49" s="160"/>
+      <c r="O49" s="160"/>
+      <c r="P49" s="160"/>
       <c r="T49" s="144"/>
     </row>
     <row r="50" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="170" t="s">
+      <c r="A50" s="160" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="170"/>
-      <c r="I50" s="170"/>
-      <c r="J50" s="170"/>
-      <c r="K50" s="170"/>
-      <c r="L50" s="170"/>
-      <c r="M50" s="170"/>
-      <c r="N50" s="170"/>
-      <c r="O50" s="170"/>
-      <c r="P50" s="170"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="160"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="160"/>
+      <c r="P50" s="160"/>
       <c r="T50" s="144"/>
     </row>
     <row r="51" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="169"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="169"/>
-      <c r="H51" s="169"/>
-      <c r="I51" s="169"/>
-      <c r="J51" s="169"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="169"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="169"/>
-      <c r="O51" s="169"/>
-      <c r="P51" s="169"/>
+      <c r="A51" s="159"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="159"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="159"/>
+      <c r="F51" s="159"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="159"/>
+      <c r="I51" s="159"/>
+      <c r="J51" s="159"/>
+      <c r="K51" s="159"/>
+      <c r="L51" s="159"/>
+      <c r="M51" s="159"/>
+      <c r="N51" s="159"/>
+      <c r="O51" s="159"/>
+      <c r="P51" s="159"/>
       <c r="T51" s="147"/>
     </row>
     <row r="52" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="162" t="s">
+      <c r="A52" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="162"/>
-      <c r="F52" s="162"/>
-      <c r="G52" s="162"/>
-      <c r="H52" s="162"/>
-      <c r="I52" s="162"/>
-      <c r="J52" s="162"/>
-      <c r="K52" s="162"/>
-      <c r="L52" s="162"/>
-      <c r="M52" s="162"/>
-      <c r="N52" s="162"/>
-      <c r="O52" s="162"/>
-      <c r="P52" s="162"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="163"/>
+      <c r="L52" s="163"/>
+      <c r="M52" s="163"/>
+      <c r="N52" s="163"/>
+      <c r="O52" s="163"/>
+      <c r="P52" s="163"/>
       <c r="T52" s="144"/>
     </row>
     <row r="53" spans="1:20" s="145" customFormat="1" ht="42" customHeight="1">
-      <c r="A53" s="163" t="s">
+      <c r="A53" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="163"/>
-      <c r="P53" s="163"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+      <c r="L53" s="161"/>
+      <c r="M53" s="161"/>
+      <c r="N53" s="161"/>
+      <c r="O53" s="161"/>
+      <c r="P53" s="161"/>
       <c r="T53" s="144"/>
     </row>
     <row r="54" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1">
@@ -9388,1021 +9388,1072 @@
       <c r="T60" s="144"/>
     </row>
     <row r="61" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="168" t="s">
         <v>243</v>
       </c>
-      <c r="B61" s="155"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="155"/>
-      <c r="J61" s="155"/>
-      <c r="K61" s="155"/>
-      <c r="L61" s="155"/>
-      <c r="M61" s="155"/>
-      <c r="N61" s="155"/>
-      <c r="O61" s="155"/>
-      <c r="P61" s="155"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="168"/>
+      <c r="K61" s="168"/>
+      <c r="L61" s="168"/>
+      <c r="M61" s="168"/>
+      <c r="N61" s="168"/>
+      <c r="O61" s="168"/>
+      <c r="P61" s="168"/>
       <c r="T61" s="147"/>
     </row>
     <row r="62" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="168" t="s">
+      <c r="A62" s="169" t="s">
         <v>244</v>
       </c>
-      <c r="B62" s="168"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="168"/>
-      <c r="K62" s="168"/>
-      <c r="L62" s="168"/>
-      <c r="M62" s="168"/>
-      <c r="N62" s="168"/>
-      <c r="O62" s="168"/>
-      <c r="P62" s="168"/>
+      <c r="B62" s="169"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="169"/>
+      <c r="G62" s="169"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="169"/>
+      <c r="L62" s="169"/>
+      <c r="M62" s="169"/>
+      <c r="N62" s="169"/>
+      <c r="O62" s="169"/>
+      <c r="P62" s="169"/>
       <c r="T62" s="147"/>
     </row>
     <row r="63" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="162" t="s">
         <v>245</v>
       </c>
-      <c r="B63" s="156"/>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="156"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="156"/>
-      <c r="N63" s="156"/>
-      <c r="O63" s="156"/>
-      <c r="P63" s="156"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="162"/>
+      <c r="D63" s="162"/>
+      <c r="E63" s="162"/>
+      <c r="F63" s="162"/>
+      <c r="G63" s="162"/>
+      <c r="H63" s="162"/>
+      <c r="I63" s="162"/>
+      <c r="J63" s="162"/>
+      <c r="K63" s="162"/>
+      <c r="L63" s="162"/>
+      <c r="M63" s="162"/>
+      <c r="N63" s="162"/>
+      <c r="O63" s="162"/>
+      <c r="P63" s="162"/>
       <c r="T63" s="147"/>
     </row>
     <row r="64" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="156" t="s">
+      <c r="A64" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="B64" s="156"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
-      <c r="I64" s="156"/>
-      <c r="J64" s="156"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
-      <c r="M64" s="156"/>
-      <c r="N64" s="156"/>
-      <c r="O64" s="156"/>
-      <c r="P64" s="156"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="162"/>
+      <c r="E64" s="162"/>
+      <c r="F64" s="162"/>
+      <c r="G64" s="162"/>
+      <c r="H64" s="162"/>
+      <c r="I64" s="162"/>
+      <c r="J64" s="162"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="162"/>
+      <c r="M64" s="162"/>
+      <c r="N64" s="162"/>
+      <c r="O64" s="162"/>
+      <c r="P64" s="162"/>
       <c r="T64" s="147"/>
     </row>
     <row r="65" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="156" t="s">
+      <c r="A65" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="B65" s="156"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="156"/>
-      <c r="K65" s="156"/>
-      <c r="L65" s="156"/>
-      <c r="M65" s="156"/>
-      <c r="N65" s="156"/>
-      <c r="O65" s="156"/>
-      <c r="P65" s="156"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="162"/>
+      <c r="D65" s="162"/>
+      <c r="E65" s="162"/>
+      <c r="F65" s="162"/>
+      <c r="G65" s="162"/>
+      <c r="H65" s="162"/>
+      <c r="I65" s="162"/>
+      <c r="J65" s="162"/>
+      <c r="K65" s="162"/>
+      <c r="L65" s="162"/>
+      <c r="M65" s="162"/>
+      <c r="N65" s="162"/>
+      <c r="O65" s="162"/>
+      <c r="P65" s="162"/>
       <c r="T65" s="147"/>
     </row>
     <row r="66" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="162" t="s">
         <v>248</v>
       </c>
-      <c r="B66" s="156"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="156"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="156"/>
-      <c r="K66" s="156"/>
-      <c r="L66" s="156"/>
-      <c r="M66" s="156"/>
-      <c r="N66" s="156"/>
-      <c r="O66" s="156"/>
-      <c r="P66" s="156"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="162"/>
+      <c r="D66" s="162"/>
+      <c r="E66" s="162"/>
+      <c r="F66" s="162"/>
+      <c r="G66" s="162"/>
+      <c r="H66" s="162"/>
+      <c r="I66" s="162"/>
+      <c r="J66" s="162"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="162"/>
+      <c r="M66" s="162"/>
+      <c r="N66" s="162"/>
+      <c r="O66" s="162"/>
+      <c r="P66" s="162"/>
       <c r="T66" s="147"/>
     </row>
     <row r="67" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="156" t="s">
+      <c r="A67" s="162" t="s">
         <v>249</v>
       </c>
-      <c r="B67" s="156"/>
-      <c r="C67" s="156"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="156"/>
-      <c r="F67" s="156"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="156"/>
-      <c r="I67" s="156"/>
-      <c r="J67" s="156"/>
-      <c r="K67" s="156"/>
-      <c r="L67" s="156"/>
-      <c r="M67" s="156"/>
-      <c r="N67" s="156"/>
-      <c r="O67" s="156"/>
-      <c r="P67" s="156"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="162"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="162"/>
+      <c r="F67" s="162"/>
+      <c r="G67" s="162"/>
+      <c r="H67" s="162"/>
+      <c r="I67" s="162"/>
+      <c r="J67" s="162"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="162"/>
+      <c r="M67" s="162"/>
+      <c r="N67" s="162"/>
+      <c r="O67" s="162"/>
+      <c r="P67" s="162"/>
       <c r="T67" s="147"/>
     </row>
     <row r="68" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="155" t="s">
+      <c r="A68" s="168" t="s">
         <v>250</v>
       </c>
-      <c r="B68" s="155"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="155"/>
-      <c r="E68" s="155"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="155"/>
-      <c r="H68" s="155"/>
-      <c r="I68" s="155"/>
-      <c r="J68" s="155"/>
-      <c r="K68" s="155"/>
-      <c r="L68" s="155"/>
-      <c r="M68" s="155"/>
-      <c r="N68" s="155"/>
-      <c r="O68" s="155"/>
-      <c r="P68" s="155"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="168"/>
+      <c r="I68" s="168"/>
+      <c r="J68" s="168"/>
+      <c r="K68" s="168"/>
+      <c r="L68" s="168"/>
+      <c r="M68" s="168"/>
+      <c r="N68" s="168"/>
+      <c r="O68" s="168"/>
+      <c r="P68" s="168"/>
       <c r="T68" s="147"/>
     </row>
     <row r="69" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="162" t="s">
         <v>251</v>
       </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="156"/>
-      <c r="I69" s="156"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="156"/>
-      <c r="L69" s="156"/>
-      <c r="M69" s="156"/>
-      <c r="N69" s="156"/>
-      <c r="O69" s="156"/>
-      <c r="P69" s="156"/>
+      <c r="B69" s="162"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="162"/>
+      <c r="E69" s="162"/>
+      <c r="F69" s="162"/>
+      <c r="G69" s="162"/>
+      <c r="H69" s="162"/>
+      <c r="I69" s="162"/>
+      <c r="J69" s="162"/>
+      <c r="K69" s="162"/>
+      <c r="L69" s="162"/>
+      <c r="M69" s="162"/>
+      <c r="N69" s="162"/>
+      <c r="O69" s="162"/>
+      <c r="P69" s="162"/>
       <c r="T69" s="147"/>
     </row>
     <row r="70" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="156" t="s">
+      <c r="A70" s="162" t="s">
         <v>252</v>
       </c>
-      <c r="B70" s="156"/>
-      <c r="C70" s="156"/>
-      <c r="D70" s="156"/>
-      <c r="E70" s="156"/>
-      <c r="F70" s="156"/>
-      <c r="G70" s="156"/>
-      <c r="H70" s="156"/>
-      <c r="I70" s="156"/>
-      <c r="J70" s="156"/>
-      <c r="K70" s="156"/>
-      <c r="L70" s="156"/>
-      <c r="M70" s="156"/>
-      <c r="N70" s="156"/>
-      <c r="O70" s="156"/>
-      <c r="P70" s="156"/>
+      <c r="B70" s="162"/>
+      <c r="C70" s="162"/>
+      <c r="D70" s="162"/>
+      <c r="E70" s="162"/>
+      <c r="F70" s="162"/>
+      <c r="G70" s="162"/>
+      <c r="H70" s="162"/>
+      <c r="I70" s="162"/>
+      <c r="J70" s="162"/>
+      <c r="K70" s="162"/>
+      <c r="L70" s="162"/>
+      <c r="M70" s="162"/>
+      <c r="N70" s="162"/>
+      <c r="O70" s="162"/>
+      <c r="P70" s="162"/>
       <c r="T70" s="147"/>
     </row>
     <row r="71" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="156" t="s">
+      <c r="A71" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="156"/>
-      <c r="K71" s="156"/>
-      <c r="L71" s="156"/>
-      <c r="M71" s="156"/>
-      <c r="N71" s="156"/>
-      <c r="O71" s="156"/>
-      <c r="P71" s="156"/>
+      <c r="B71" s="162"/>
+      <c r="C71" s="162"/>
+      <c r="D71" s="162"/>
+      <c r="E71" s="162"/>
+      <c r="F71" s="162"/>
+      <c r="G71" s="162"/>
+      <c r="H71" s="162"/>
+      <c r="I71" s="162"/>
+      <c r="J71" s="162"/>
+      <c r="K71" s="162"/>
+      <c r="L71" s="162"/>
+      <c r="M71" s="162"/>
+      <c r="N71" s="162"/>
+      <c r="O71" s="162"/>
+      <c r="P71" s="162"/>
       <c r="T71" s="147"/>
     </row>
     <row r="72" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="156" t="s">
+      <c r="A72" s="162" t="s">
         <v>254</v>
       </c>
-      <c r="B72" s="156"/>
-      <c r="C72" s="156"/>
-      <c r="D72" s="156"/>
-      <c r="E72" s="156"/>
-      <c r="F72" s="156"/>
-      <c r="G72" s="156"/>
-      <c r="H72" s="156"/>
-      <c r="I72" s="156"/>
-      <c r="J72" s="156"/>
-      <c r="K72" s="156"/>
-      <c r="L72" s="156"/>
-      <c r="M72" s="156"/>
-      <c r="N72" s="156"/>
-      <c r="O72" s="156"/>
-      <c r="P72" s="156"/>
+      <c r="B72" s="162"/>
+      <c r="C72" s="162"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="162"/>
+      <c r="F72" s="162"/>
+      <c r="G72" s="162"/>
+      <c r="H72" s="162"/>
+      <c r="I72" s="162"/>
+      <c r="J72" s="162"/>
+      <c r="K72" s="162"/>
+      <c r="L72" s="162"/>
+      <c r="M72" s="162"/>
+      <c r="N72" s="162"/>
+      <c r="O72" s="162"/>
+      <c r="P72" s="162"/>
       <c r="T72" s="147"/>
     </row>
     <row r="73" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="156" t="s">
+      <c r="A73" s="162" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="156"/>
-      <c r="C73" s="156"/>
-      <c r="D73" s="156"/>
-      <c r="E73" s="156"/>
-      <c r="F73" s="156"/>
-      <c r="G73" s="156"/>
-      <c r="H73" s="156"/>
-      <c r="I73" s="156"/>
-      <c r="J73" s="156"/>
-      <c r="K73" s="156"/>
-      <c r="L73" s="156"/>
-      <c r="M73" s="156"/>
-      <c r="N73" s="156"/>
-      <c r="O73" s="156"/>
-      <c r="P73" s="156"/>
+      <c r="B73" s="162"/>
+      <c r="C73" s="162"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="162"/>
+      <c r="F73" s="162"/>
+      <c r="G73" s="162"/>
+      <c r="H73" s="162"/>
+      <c r="I73" s="162"/>
+      <c r="J73" s="162"/>
+      <c r="K73" s="162"/>
+      <c r="L73" s="162"/>
+      <c r="M73" s="162"/>
+      <c r="N73" s="162"/>
+      <c r="O73" s="162"/>
+      <c r="P73" s="162"/>
       <c r="T73" s="147"/>
     </row>
     <row r="74" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="157" t="s">
+      <c r="A74" s="170" t="s">
         <v>256</v>
       </c>
-      <c r="B74" s="157"/>
-      <c r="C74" s="157"/>
-      <c r="D74" s="157"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="157"/>
-      <c r="I74" s="157"/>
-      <c r="J74" s="157"/>
-      <c r="K74" s="157"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="157"/>
-      <c r="O74" s="157"/>
-      <c r="P74" s="157"/>
+      <c r="B74" s="170"/>
+      <c r="C74" s="170"/>
+      <c r="D74" s="170"/>
+      <c r="E74" s="170"/>
+      <c r="F74" s="170"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="170"/>
+      <c r="I74" s="170"/>
+      <c r="J74" s="170"/>
+      <c r="K74" s="170"/>
+      <c r="L74" s="170"/>
+      <c r="M74" s="170"/>
+      <c r="N74" s="170"/>
+      <c r="O74" s="170"/>
+      <c r="P74" s="170"/>
       <c r="T74" s="147"/>
     </row>
     <row r="75" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="155" t="s">
+      <c r="A75" s="168" t="s">
         <v>257</v>
       </c>
-      <c r="B75" s="155"/>
-      <c r="C75" s="155"/>
-      <c r="D75" s="155"/>
-      <c r="E75" s="155"/>
-      <c r="F75" s="155"/>
-      <c r="G75" s="155"/>
-      <c r="H75" s="155"/>
-      <c r="I75" s="155"/>
-      <c r="J75" s="155"/>
-      <c r="K75" s="155"/>
-      <c r="L75" s="155"/>
-      <c r="M75" s="155"/>
-      <c r="N75" s="155"/>
-      <c r="O75" s="155"/>
-      <c r="P75" s="155"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="168"/>
+      <c r="D75" s="168"/>
+      <c r="E75" s="168"/>
+      <c r="F75" s="168"/>
+      <c r="G75" s="168"/>
+      <c r="H75" s="168"/>
+      <c r="I75" s="168"/>
+      <c r="J75" s="168"/>
+      <c r="K75" s="168"/>
+      <c r="L75" s="168"/>
+      <c r="M75" s="168"/>
+      <c r="N75" s="168"/>
+      <c r="O75" s="168"/>
+      <c r="P75" s="168"/>
       <c r="T75" s="144"/>
     </row>
     <row r="76" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="158" t="s">
+      <c r="A76" s="172" t="s">
         <v>258</v>
       </c>
-      <c r="B76" s="158"/>
-      <c r="C76" s="158"/>
-      <c r="D76" s="158"/>
-      <c r="E76" s="158"/>
-      <c r="F76" s="158"/>
-      <c r="G76" s="158"/>
-      <c r="H76" s="158"/>
-      <c r="I76" s="158"/>
-      <c r="J76" s="158"/>
-      <c r="K76" s="158"/>
-      <c r="L76" s="158"/>
-      <c r="M76" s="158"/>
-      <c r="N76" s="158"/>
-      <c r="O76" s="158"/>
-      <c r="P76" s="158"/>
+      <c r="B76" s="172"/>
+      <c r="C76" s="172"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="172"/>
+      <c r="G76" s="172"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="172"/>
+      <c r="J76" s="172"/>
+      <c r="K76" s="172"/>
+      <c r="L76" s="172"/>
+      <c r="M76" s="172"/>
+      <c r="N76" s="172"/>
+      <c r="O76" s="172"/>
+      <c r="P76" s="172"/>
       <c r="T76" s="147"/>
     </row>
     <row r="77" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="160" t="s">
+      <c r="A77" s="171" t="s">
         <v>259</v>
       </c>
-      <c r="B77" s="160"/>
-      <c r="C77" s="160"/>
-      <c r="D77" s="160"/>
-      <c r="E77" s="160"/>
-      <c r="F77" s="160"/>
-      <c r="G77" s="160"/>
-      <c r="H77" s="160"/>
-      <c r="I77" s="160"/>
-      <c r="J77" s="160"/>
-      <c r="K77" s="160"/>
-      <c r="L77" s="160"/>
-      <c r="M77" s="160"/>
-      <c r="N77" s="160"/>
-      <c r="O77" s="160"/>
-      <c r="P77" s="160"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="171"/>
+      <c r="G77" s="171"/>
+      <c r="H77" s="171"/>
+      <c r="I77" s="171"/>
+      <c r="J77" s="171"/>
+      <c r="K77" s="171"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="171"/>
+      <c r="N77" s="171"/>
+      <c r="O77" s="171"/>
+      <c r="P77" s="171"/>
       <c r="T77" s="147"/>
     </row>
     <row r="78" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="161" t="s">
+      <c r="A78" s="173" t="s">
         <v>260</v>
       </c>
-      <c r="B78" s="161"/>
-      <c r="C78" s="161"/>
-      <c r="D78" s="161"/>
-      <c r="E78" s="161"/>
-      <c r="F78" s="161"/>
-      <c r="G78" s="161"/>
-      <c r="H78" s="161"/>
-      <c r="I78" s="161"/>
-      <c r="J78" s="161"/>
-      <c r="K78" s="161"/>
-      <c r="L78" s="161"/>
-      <c r="M78" s="161"/>
-      <c r="N78" s="161"/>
-      <c r="O78" s="161"/>
-      <c r="P78" s="161"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
+      <c r="E78" s="173"/>
+      <c r="F78" s="173"/>
+      <c r="G78" s="173"/>
+      <c r="H78" s="173"/>
+      <c r="I78" s="173"/>
+      <c r="J78" s="173"/>
+      <c r="K78" s="173"/>
+      <c r="L78" s="173"/>
+      <c r="M78" s="173"/>
+      <c r="N78" s="173"/>
+      <c r="O78" s="173"/>
+      <c r="P78" s="173"/>
       <c r="T78" s="147"/>
     </row>
     <row r="79" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A79" s="160" t="s">
+      <c r="A79" s="171" t="s">
         <v>261</v>
       </c>
-      <c r="B79" s="160"/>
-      <c r="C79" s="160"/>
-      <c r="D79" s="160"/>
-      <c r="E79" s="160"/>
-      <c r="F79" s="160"/>
-      <c r="G79" s="160"/>
-      <c r="H79" s="160"/>
-      <c r="I79" s="160"/>
-      <c r="J79" s="160"/>
-      <c r="K79" s="160"/>
-      <c r="L79" s="160"/>
-      <c r="M79" s="160"/>
-      <c r="N79" s="160"/>
-      <c r="O79" s="160"/>
-      <c r="P79" s="160"/>
+      <c r="B79" s="171"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="171"/>
+      <c r="F79" s="171"/>
+      <c r="G79" s="171"/>
+      <c r="H79" s="171"/>
+      <c r="I79" s="171"/>
+      <c r="J79" s="171"/>
+      <c r="K79" s="171"/>
+      <c r="L79" s="171"/>
+      <c r="M79" s="171"/>
+      <c r="N79" s="171"/>
+      <c r="O79" s="171"/>
+      <c r="P79" s="171"/>
       <c r="T79" s="147"/>
     </row>
     <row r="80" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="155" t="s">
+      <c r="A80" s="168" t="s">
         <v>262</v>
       </c>
-      <c r="B80" s="155"/>
-      <c r="C80" s="155"/>
-      <c r="D80" s="155"/>
-      <c r="E80" s="155"/>
-      <c r="F80" s="155"/>
-      <c r="G80" s="155"/>
-      <c r="H80" s="155"/>
-      <c r="I80" s="155"/>
-      <c r="J80" s="155"/>
-      <c r="K80" s="155"/>
-      <c r="L80" s="155"/>
-      <c r="M80" s="155"/>
-      <c r="N80" s="155"/>
-      <c r="O80" s="155"/>
-      <c r="P80" s="155"/>
+      <c r="B80" s="168"/>
+      <c r="C80" s="168"/>
+      <c r="D80" s="168"/>
+      <c r="E80" s="168"/>
+      <c r="F80" s="168"/>
+      <c r="G80" s="168"/>
+      <c r="H80" s="168"/>
+      <c r="I80" s="168"/>
+      <c r="J80" s="168"/>
+      <c r="K80" s="168"/>
+      <c r="L80" s="168"/>
+      <c r="M80" s="168"/>
+      <c r="N80" s="168"/>
+      <c r="O80" s="168"/>
+      <c r="P80" s="168"/>
       <c r="T80" s="147"/>
     </row>
     <row r="81" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="158" t="s">
+      <c r="A81" s="172" t="s">
         <v>263</v>
       </c>
-      <c r="B81" s="158"/>
-      <c r="C81" s="158"/>
-      <c r="D81" s="158"/>
-      <c r="E81" s="158"/>
-      <c r="F81" s="158"/>
-      <c r="G81" s="158"/>
-      <c r="H81" s="158"/>
-      <c r="I81" s="158"/>
-      <c r="J81" s="158"/>
-      <c r="K81" s="158"/>
-      <c r="L81" s="158"/>
-      <c r="M81" s="158"/>
-      <c r="N81" s="158"/>
-      <c r="O81" s="158"/>
-      <c r="P81" s="158"/>
+      <c r="B81" s="172"/>
+      <c r="C81" s="172"/>
+      <c r="D81" s="172"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="172"/>
+      <c r="G81" s="172"/>
+      <c r="H81" s="172"/>
+      <c r="I81" s="172"/>
+      <c r="J81" s="172"/>
+      <c r="K81" s="172"/>
+      <c r="L81" s="172"/>
+      <c r="M81" s="172"/>
+      <c r="N81" s="172"/>
+      <c r="O81" s="172"/>
+      <c r="P81" s="172"/>
       <c r="T81" s="147"/>
     </row>
     <row r="82" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="160" t="s">
+      <c r="A82" s="171" t="s">
         <v>264</v>
       </c>
-      <c r="B82" s="160"/>
-      <c r="C82" s="160"/>
-      <c r="D82" s="160"/>
-      <c r="E82" s="160"/>
-      <c r="F82" s="160"/>
-      <c r="G82" s="160"/>
-      <c r="H82" s="160"/>
-      <c r="I82" s="160"/>
-      <c r="J82" s="160"/>
-      <c r="K82" s="160"/>
-      <c r="L82" s="160"/>
-      <c r="M82" s="160"/>
-      <c r="N82" s="160"/>
-      <c r="O82" s="160"/>
-      <c r="P82" s="160"/>
+      <c r="B82" s="171"/>
+      <c r="C82" s="171"/>
+      <c r="D82" s="171"/>
+      <c r="E82" s="171"/>
+      <c r="F82" s="171"/>
+      <c r="G82" s="171"/>
+      <c r="H82" s="171"/>
+      <c r="I82" s="171"/>
+      <c r="J82" s="171"/>
+      <c r="K82" s="171"/>
+      <c r="L82" s="171"/>
+      <c r="M82" s="171"/>
+      <c r="N82" s="171"/>
+      <c r="O82" s="171"/>
+      <c r="P82" s="171"/>
       <c r="T82" s="147"/>
     </row>
     <row r="83" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="155" t="s">
+      <c r="A83" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="B83" s="155"/>
-      <c r="C83" s="155"/>
-      <c r="D83" s="155"/>
-      <c r="E83" s="155"/>
-      <c r="F83" s="155"/>
-      <c r="G83" s="155"/>
-      <c r="H83" s="155"/>
-      <c r="I83" s="155"/>
-      <c r="J83" s="155"/>
-      <c r="K83" s="155"/>
-      <c r="L83" s="155"/>
-      <c r="M83" s="155"/>
-      <c r="N83" s="155"/>
-      <c r="O83" s="155"/>
-      <c r="P83" s="155"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
+      <c r="F83" s="168"/>
+      <c r="G83" s="168"/>
+      <c r="H83" s="168"/>
+      <c r="I83" s="168"/>
+      <c r="J83" s="168"/>
+      <c r="K83" s="168"/>
+      <c r="L83" s="168"/>
+      <c r="M83" s="168"/>
+      <c r="N83" s="168"/>
+      <c r="O83" s="168"/>
+      <c r="P83" s="168"/>
       <c r="T83" s="147"/>
     </row>
     <row r="84" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="158" t="s">
+      <c r="A84" s="172" t="s">
         <v>266</v>
       </c>
-      <c r="B84" s="158"/>
-      <c r="C84" s="158"/>
-      <c r="D84" s="158"/>
-      <c r="E84" s="158"/>
-      <c r="F84" s="158"/>
-      <c r="G84" s="158"/>
-      <c r="H84" s="158"/>
-      <c r="I84" s="158"/>
-      <c r="J84" s="158"/>
-      <c r="K84" s="158"/>
-      <c r="L84" s="158"/>
-      <c r="M84" s="158"/>
-      <c r="N84" s="158"/>
-      <c r="O84" s="158"/>
-      <c r="P84" s="158"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
+      <c r="D84" s="172"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="172"/>
+      <c r="G84" s="172"/>
+      <c r="H84" s="172"/>
+      <c r="I84" s="172"/>
+      <c r="J84" s="172"/>
+      <c r="K84" s="172"/>
+      <c r="L84" s="172"/>
+      <c r="M84" s="172"/>
+      <c r="N84" s="172"/>
+      <c r="O84" s="172"/>
+      <c r="P84" s="172"/>
       <c r="T84" s="147"/>
     </row>
     <row r="85" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="160" t="s">
+      <c r="A85" s="171" t="s">
         <v>259</v>
       </c>
-      <c r="B85" s="160"/>
-      <c r="C85" s="160"/>
-      <c r="D85" s="160"/>
-      <c r="E85" s="160"/>
-      <c r="F85" s="160"/>
-      <c r="G85" s="160"/>
-      <c r="H85" s="160"/>
-      <c r="I85" s="160"/>
-      <c r="J85" s="160"/>
-      <c r="K85" s="160"/>
-      <c r="L85" s="160"/>
-      <c r="M85" s="160"/>
-      <c r="N85" s="160"/>
-      <c r="O85" s="160"/>
-      <c r="P85" s="160"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
+      <c r="G85" s="171"/>
+      <c r="H85" s="171"/>
+      <c r="I85" s="171"/>
+      <c r="J85" s="171"/>
+      <c r="K85" s="171"/>
+      <c r="L85" s="171"/>
+      <c r="M85" s="171"/>
+      <c r="N85" s="171"/>
+      <c r="O85" s="171"/>
+      <c r="P85" s="171"/>
       <c r="T85" s="147"/>
     </row>
     <row r="86" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="161" t="s">
+      <c r="A86" s="173" t="s">
         <v>267</v>
       </c>
-      <c r="B86" s="161"/>
-      <c r="C86" s="161"/>
-      <c r="D86" s="161"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="161"/>
-      <c r="G86" s="161"/>
-      <c r="H86" s="161"/>
-      <c r="I86" s="161"/>
-      <c r="J86" s="161"/>
-      <c r="K86" s="161"/>
-      <c r="L86" s="161"/>
-      <c r="M86" s="161"/>
-      <c r="N86" s="161"/>
-      <c r="O86" s="161"/>
-      <c r="P86" s="161"/>
+      <c r="B86" s="173"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="173"/>
+      <c r="E86" s="173"/>
+      <c r="F86" s="173"/>
+      <c r="G86" s="173"/>
+      <c r="H86" s="173"/>
+      <c r="I86" s="173"/>
+      <c r="J86" s="173"/>
+      <c r="K86" s="173"/>
+      <c r="L86" s="173"/>
+      <c r="M86" s="173"/>
+      <c r="N86" s="173"/>
+      <c r="O86" s="173"/>
+      <c r="P86" s="173"/>
       <c r="T86" s="147"/>
     </row>
     <row r="87" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A87" s="160" t="s">
+      <c r="A87" s="171" t="s">
         <v>268</v>
       </c>
-      <c r="B87" s="160"/>
-      <c r="C87" s="160"/>
-      <c r="D87" s="160"/>
-      <c r="E87" s="160"/>
-      <c r="F87" s="160"/>
-      <c r="G87" s="160"/>
-      <c r="H87" s="160"/>
-      <c r="I87" s="160"/>
-      <c r="J87" s="160"/>
-      <c r="K87" s="160"/>
-      <c r="L87" s="160"/>
-      <c r="M87" s="160"/>
-      <c r="N87" s="160"/>
-      <c r="O87" s="160"/>
-      <c r="P87" s="160"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
+      <c r="G87" s="171"/>
+      <c r="H87" s="171"/>
+      <c r="I87" s="171"/>
+      <c r="J87" s="171"/>
+      <c r="K87" s="171"/>
+      <c r="L87" s="171"/>
+      <c r="M87" s="171"/>
+      <c r="N87" s="171"/>
+      <c r="O87" s="171"/>
+      <c r="P87" s="171"/>
       <c r="T87" s="147"/>
     </row>
     <row r="88" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="155" t="s">
+      <c r="A88" s="168" t="s">
         <v>269</v>
       </c>
-      <c r="B88" s="155"/>
-      <c r="C88" s="155"/>
-      <c r="D88" s="155"/>
-      <c r="E88" s="155"/>
-      <c r="F88" s="155"/>
-      <c r="G88" s="155"/>
-      <c r="H88" s="155"/>
-      <c r="I88" s="155"/>
-      <c r="J88" s="155"/>
-      <c r="K88" s="155"/>
-      <c r="L88" s="155"/>
-      <c r="M88" s="155"/>
-      <c r="N88" s="155"/>
-      <c r="O88" s="155"/>
-      <c r="P88" s="155"/>
+      <c r="B88" s="168"/>
+      <c r="C88" s="168"/>
+      <c r="D88" s="168"/>
+      <c r="E88" s="168"/>
+      <c r="F88" s="168"/>
+      <c r="G88" s="168"/>
+      <c r="H88" s="168"/>
+      <c r="I88" s="168"/>
+      <c r="J88" s="168"/>
+      <c r="K88" s="168"/>
+      <c r="L88" s="168"/>
+      <c r="M88" s="168"/>
+      <c r="N88" s="168"/>
+      <c r="O88" s="168"/>
+      <c r="P88" s="168"/>
       <c r="T88" s="147"/>
     </row>
     <row r="89" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="158" t="s">
+      <c r="A89" s="172" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="158"/>
-      <c r="C89" s="158"/>
-      <c r="D89" s="158"/>
-      <c r="E89" s="158"/>
-      <c r="F89" s="158"/>
-      <c r="G89" s="158"/>
-      <c r="H89" s="158"/>
-      <c r="I89" s="158"/>
-      <c r="J89" s="158"/>
-      <c r="K89" s="158"/>
-      <c r="L89" s="158"/>
-      <c r="M89" s="158"/>
-      <c r="N89" s="158"/>
-      <c r="O89" s="158"/>
-      <c r="P89" s="158"/>
+      <c r="B89" s="172"/>
+      <c r="C89" s="172"/>
+      <c r="D89" s="172"/>
+      <c r="E89" s="172"/>
+      <c r="F89" s="172"/>
+      <c r="G89" s="172"/>
+      <c r="H89" s="172"/>
+      <c r="I89" s="172"/>
+      <c r="J89" s="172"/>
+      <c r="K89" s="172"/>
+      <c r="L89" s="172"/>
+      <c r="M89" s="172"/>
+      <c r="N89" s="172"/>
+      <c r="O89" s="172"/>
+      <c r="P89" s="172"/>
       <c r="T89" s="147"/>
     </row>
     <row r="90" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="160" t="s">
+      <c r="A90" s="171" t="s">
         <v>264</v>
       </c>
-      <c r="B90" s="160"/>
-      <c r="C90" s="160"/>
-      <c r="D90" s="160"/>
-      <c r="E90" s="160"/>
-      <c r="F90" s="160"/>
-      <c r="G90" s="160"/>
-      <c r="H90" s="160"/>
-      <c r="I90" s="160"/>
-      <c r="J90" s="160"/>
-      <c r="K90" s="160"/>
-      <c r="L90" s="160"/>
-      <c r="M90" s="160"/>
-      <c r="N90" s="160"/>
-      <c r="O90" s="160"/>
-      <c r="P90" s="160"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="171"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="171"/>
+      <c r="G90" s="171"/>
+      <c r="H90" s="171"/>
+      <c r="I90" s="171"/>
+      <c r="J90" s="171"/>
+      <c r="K90" s="171"/>
+      <c r="L90" s="171"/>
+      <c r="M90" s="171"/>
+      <c r="N90" s="171"/>
+      <c r="O90" s="171"/>
+      <c r="P90" s="171"/>
       <c r="T90" s="147"/>
     </row>
     <row r="91" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="157" t="s">
+      <c r="A91" s="170" t="s">
         <v>271</v>
       </c>
-      <c r="B91" s="157"/>
-      <c r="C91" s="157"/>
-      <c r="D91" s="157"/>
-      <c r="E91" s="157"/>
-      <c r="F91" s="157"/>
-      <c r="G91" s="157"/>
-      <c r="H91" s="157"/>
-      <c r="I91" s="157"/>
-      <c r="J91" s="157"/>
-      <c r="K91" s="157"/>
-      <c r="L91" s="157"/>
-      <c r="M91" s="157"/>
-      <c r="N91" s="157"/>
-      <c r="O91" s="157"/>
-      <c r="P91" s="157"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="170"/>
+      <c r="E91" s="170"/>
+      <c r="F91" s="170"/>
+      <c r="G91" s="170"/>
+      <c r="H91" s="170"/>
+      <c r="I91" s="170"/>
+      <c r="J91" s="170"/>
+      <c r="K91" s="170"/>
+      <c r="L91" s="170"/>
+      <c r="M91" s="170"/>
+      <c r="N91" s="170"/>
+      <c r="O91" s="170"/>
+      <c r="P91" s="170"/>
       <c r="T91" s="147"/>
     </row>
     <row r="92" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A92" s="156" t="s">
+      <c r="A92" s="162" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="156"/>
-      <c r="C92" s="156"/>
-      <c r="D92" s="156"/>
-      <c r="E92" s="156"/>
-      <c r="F92" s="156"/>
-      <c r="G92" s="156"/>
-      <c r="H92" s="156"/>
-      <c r="I92" s="156"/>
-      <c r="J92" s="156"/>
-      <c r="K92" s="156"/>
-      <c r="L92" s="156"/>
-      <c r="M92" s="156"/>
-      <c r="N92" s="156"/>
-      <c r="O92" s="156"/>
-      <c r="P92" s="156"/>
+      <c r="B92" s="162"/>
+      <c r="C92" s="162"/>
+      <c r="D92" s="162"/>
+      <c r="E92" s="162"/>
+      <c r="F92" s="162"/>
+      <c r="G92" s="162"/>
+      <c r="H92" s="162"/>
+      <c r="I92" s="162"/>
+      <c r="J92" s="162"/>
+      <c r="K92" s="162"/>
+      <c r="L92" s="162"/>
+      <c r="M92" s="162"/>
+      <c r="N92" s="162"/>
+      <c r="O92" s="162"/>
+      <c r="P92" s="162"/>
       <c r="T92" s="147"/>
     </row>
     <row r="93" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="156" t="s">
+      <c r="A93" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="B93" s="156"/>
-      <c r="C93" s="156"/>
-      <c r="D93" s="156"/>
-      <c r="E93" s="156"/>
-      <c r="F93" s="156"/>
-      <c r="G93" s="156"/>
-      <c r="H93" s="156"/>
-      <c r="I93" s="156"/>
-      <c r="J93" s="156"/>
-      <c r="K93" s="156"/>
-      <c r="L93" s="156"/>
-      <c r="M93" s="156"/>
-      <c r="N93" s="156"/>
-      <c r="O93" s="156"/>
-      <c r="P93" s="156"/>
+      <c r="B93" s="162"/>
+      <c r="C93" s="162"/>
+      <c r="D93" s="162"/>
+      <c r="E93" s="162"/>
+      <c r="F93" s="162"/>
+      <c r="G93" s="162"/>
+      <c r="H93" s="162"/>
+      <c r="I93" s="162"/>
+      <c r="J93" s="162"/>
+      <c r="K93" s="162"/>
+      <c r="L93" s="162"/>
+      <c r="M93" s="162"/>
+      <c r="N93" s="162"/>
+      <c r="O93" s="162"/>
+      <c r="P93" s="162"/>
       <c r="T93" s="147"/>
     </row>
     <row r="94" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A94" s="157" t="s">
+      <c r="A94" s="170" t="s">
         <v>274</v>
       </c>
-      <c r="B94" s="157"/>
-      <c r="C94" s="157"/>
-      <c r="D94" s="157"/>
-      <c r="E94" s="157"/>
-      <c r="F94" s="157"/>
-      <c r="G94" s="157"/>
-      <c r="H94" s="157"/>
-      <c r="I94" s="157"/>
-      <c r="J94" s="157"/>
-      <c r="K94" s="157"/>
-      <c r="L94" s="157"/>
-      <c r="M94" s="157"/>
-      <c r="N94" s="157"/>
-      <c r="O94" s="157"/>
-      <c r="P94" s="157"/>
+      <c r="B94" s="170"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="170"/>
+      <c r="E94" s="170"/>
+      <c r="F94" s="170"/>
+      <c r="G94" s="170"/>
+      <c r="H94" s="170"/>
+      <c r="I94" s="170"/>
+      <c r="J94" s="170"/>
+      <c r="K94" s="170"/>
+      <c r="L94" s="170"/>
+      <c r="M94" s="170"/>
+      <c r="N94" s="170"/>
+      <c r="O94" s="170"/>
+      <c r="P94" s="170"/>
       <c r="T94" s="147"/>
     </row>
     <row r="95" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="156" t="s">
+      <c r="A95" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="B95" s="156"/>
-      <c r="C95" s="156"/>
-      <c r="D95" s="156"/>
-      <c r="E95" s="156"/>
-      <c r="F95" s="156"/>
-      <c r="G95" s="156"/>
-      <c r="H95" s="156"/>
-      <c r="I95" s="156"/>
-      <c r="J95" s="156"/>
-      <c r="K95" s="156"/>
-      <c r="L95" s="156"/>
-      <c r="M95" s="156"/>
-      <c r="N95" s="156"/>
-      <c r="O95" s="156"/>
-      <c r="P95" s="156"/>
+      <c r="B95" s="162"/>
+      <c r="C95" s="162"/>
+      <c r="D95" s="162"/>
+      <c r="E95" s="162"/>
+      <c r="F95" s="162"/>
+      <c r="G95" s="162"/>
+      <c r="H95" s="162"/>
+      <c r="I95" s="162"/>
+      <c r="J95" s="162"/>
+      <c r="K95" s="162"/>
+      <c r="L95" s="162"/>
+      <c r="M95" s="162"/>
+      <c r="N95" s="162"/>
+      <c r="O95" s="162"/>
+      <c r="P95" s="162"/>
       <c r="T95" s="147"/>
     </row>
     <row r="96" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="157" t="s">
+      <c r="A96" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="B96" s="157"/>
-      <c r="C96" s="157"/>
-      <c r="D96" s="157"/>
-      <c r="E96" s="157"/>
-      <c r="F96" s="157"/>
-      <c r="G96" s="157"/>
-      <c r="H96" s="157"/>
-      <c r="I96" s="157"/>
-      <c r="J96" s="157"/>
-      <c r="K96" s="157"/>
-      <c r="L96" s="157"/>
-      <c r="M96" s="157"/>
-      <c r="N96" s="157"/>
-      <c r="O96" s="157"/>
-      <c r="P96" s="157"/>
+      <c r="B96" s="170"/>
+      <c r="C96" s="170"/>
+      <c r="D96" s="170"/>
+      <c r="E96" s="170"/>
+      <c r="F96" s="170"/>
+      <c r="G96" s="170"/>
+      <c r="H96" s="170"/>
+      <c r="I96" s="170"/>
+      <c r="J96" s="170"/>
+      <c r="K96" s="170"/>
+      <c r="L96" s="170"/>
+      <c r="M96" s="170"/>
+      <c r="N96" s="170"/>
+      <c r="O96" s="170"/>
+      <c r="P96" s="170"/>
       <c r="T96" s="147"/>
     </row>
     <row r="97" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="155" t="s">
+      <c r="A97" s="168" t="s">
         <v>277</v>
       </c>
-      <c r="B97" s="155"/>
-      <c r="C97" s="155"/>
-      <c r="D97" s="155"/>
-      <c r="E97" s="155"/>
-      <c r="F97" s="155"/>
-      <c r="G97" s="155"/>
-      <c r="H97" s="155"/>
-      <c r="I97" s="155"/>
-      <c r="J97" s="155"/>
-      <c r="K97" s="155"/>
-      <c r="L97" s="155"/>
-      <c r="M97" s="155"/>
-      <c r="N97" s="155"/>
-      <c r="O97" s="155"/>
-      <c r="P97" s="155"/>
+      <c r="B97" s="168"/>
+      <c r="C97" s="168"/>
+      <c r="D97" s="168"/>
+      <c r="E97" s="168"/>
+      <c r="F97" s="168"/>
+      <c r="G97" s="168"/>
+      <c r="H97" s="168"/>
+      <c r="I97" s="168"/>
+      <c r="J97" s="168"/>
+      <c r="K97" s="168"/>
+      <c r="L97" s="168"/>
+      <c r="M97" s="168"/>
+      <c r="N97" s="168"/>
+      <c r="O97" s="168"/>
+      <c r="P97" s="168"/>
       <c r="T97" s="147"/>
     </row>
     <row r="98" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="156" t="s">
+      <c r="A98" s="162" t="s">
         <v>278</v>
       </c>
-      <c r="B98" s="156"/>
-      <c r="C98" s="156"/>
-      <c r="D98" s="156"/>
-      <c r="E98" s="156"/>
-      <c r="F98" s="156"/>
-      <c r="G98" s="156"/>
-      <c r="H98" s="156"/>
-      <c r="I98" s="156"/>
-      <c r="J98" s="156"/>
-      <c r="K98" s="156"/>
-      <c r="L98" s="156"/>
-      <c r="M98" s="156"/>
-      <c r="N98" s="156"/>
-      <c r="O98" s="156"/>
-      <c r="P98" s="156"/>
+      <c r="B98" s="162"/>
+      <c r="C98" s="162"/>
+      <c r="D98" s="162"/>
+      <c r="E98" s="162"/>
+      <c r="F98" s="162"/>
+      <c r="G98" s="162"/>
+      <c r="H98" s="162"/>
+      <c r="I98" s="162"/>
+      <c r="J98" s="162"/>
+      <c r="K98" s="162"/>
+      <c r="L98" s="162"/>
+      <c r="M98" s="162"/>
+      <c r="N98" s="162"/>
+      <c r="O98" s="162"/>
+      <c r="P98" s="162"/>
       <c r="T98" s="147"/>
     </row>
     <row r="99" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="156" t="s">
+      <c r="A99" s="162" t="s">
         <v>279</v>
       </c>
-      <c r="B99" s="156"/>
-      <c r="C99" s="156"/>
-      <c r="D99" s="156"/>
-      <c r="E99" s="156"/>
-      <c r="F99" s="156"/>
-      <c r="G99" s="156"/>
-      <c r="H99" s="156"/>
-      <c r="I99" s="156"/>
-      <c r="J99" s="156"/>
-      <c r="K99" s="156"/>
-      <c r="L99" s="156"/>
-      <c r="M99" s="156"/>
-      <c r="N99" s="156"/>
-      <c r="O99" s="156"/>
-      <c r="P99" s="156"/>
+      <c r="B99" s="162"/>
+      <c r="C99" s="162"/>
+      <c r="D99" s="162"/>
+      <c r="E99" s="162"/>
+      <c r="F99" s="162"/>
+      <c r="G99" s="162"/>
+      <c r="H99" s="162"/>
+      <c r="I99" s="162"/>
+      <c r="J99" s="162"/>
+      <c r="K99" s="162"/>
+      <c r="L99" s="162"/>
+      <c r="M99" s="162"/>
+      <c r="N99" s="162"/>
+      <c r="O99" s="162"/>
+      <c r="P99" s="162"/>
       <c r="T99" s="147"/>
     </row>
     <row r="100" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="156" t="s">
+      <c r="A100" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="B100" s="156"/>
-      <c r="C100" s="156"/>
-      <c r="D100" s="156"/>
-      <c r="E100" s="156"/>
-      <c r="F100" s="156"/>
-      <c r="G100" s="156"/>
-      <c r="H100" s="156"/>
-      <c r="I100" s="156"/>
-      <c r="J100" s="156"/>
-      <c r="K100" s="156"/>
-      <c r="L100" s="156"/>
-      <c r="M100" s="156"/>
-      <c r="N100" s="156"/>
-      <c r="O100" s="156"/>
-      <c r="P100" s="156"/>
+      <c r="B100" s="162"/>
+      <c r="C100" s="162"/>
+      <c r="D100" s="162"/>
+      <c r="E100" s="162"/>
+      <c r="F100" s="162"/>
+      <c r="G100" s="162"/>
+      <c r="H100" s="162"/>
+      <c r="I100" s="162"/>
+      <c r="J100" s="162"/>
+      <c r="K100" s="162"/>
+      <c r="L100" s="162"/>
+      <c r="M100" s="162"/>
+      <c r="N100" s="162"/>
+      <c r="O100" s="162"/>
+      <c r="P100" s="162"/>
       <c r="T100" s="147"/>
     </row>
     <row r="101" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="157" t="s">
+      <c r="A101" s="170" t="s">
         <v>281</v>
       </c>
-      <c r="B101" s="157"/>
-      <c r="C101" s="157"/>
-      <c r="D101" s="157"/>
-      <c r="E101" s="157"/>
-      <c r="F101" s="157"/>
-      <c r="G101" s="157"/>
-      <c r="H101" s="157"/>
-      <c r="I101" s="157"/>
-      <c r="J101" s="157"/>
-      <c r="K101" s="157"/>
-      <c r="L101" s="157"/>
-      <c r="M101" s="157"/>
-      <c r="N101" s="157"/>
-      <c r="O101" s="157"/>
-      <c r="P101" s="157"/>
+      <c r="B101" s="170"/>
+      <c r="C101" s="170"/>
+      <c r="D101" s="170"/>
+      <c r="E101" s="170"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="170"/>
+      <c r="H101" s="170"/>
+      <c r="I101" s="170"/>
+      <c r="J101" s="170"/>
+      <c r="K101" s="170"/>
+      <c r="L101" s="170"/>
+      <c r="M101" s="170"/>
+      <c r="N101" s="170"/>
+      <c r="O101" s="170"/>
+      <c r="P101" s="170"/>
       <c r="T101" s="147"/>
     </row>
     <row r="102" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="155" t="s">
+      <c r="A102" s="168" t="s">
         <v>282</v>
       </c>
-      <c r="B102" s="155"/>
-      <c r="C102" s="155"/>
-      <c r="D102" s="155"/>
-      <c r="E102" s="155"/>
-      <c r="F102" s="155"/>
-      <c r="G102" s="155"/>
-      <c r="H102" s="155"/>
-      <c r="I102" s="155"/>
-      <c r="J102" s="155"/>
-      <c r="K102" s="155"/>
-      <c r="L102" s="155"/>
-      <c r="M102" s="155"/>
-      <c r="N102" s="155"/>
-      <c r="O102" s="155"/>
-      <c r="P102" s="155"/>
+      <c r="B102" s="168"/>
+      <c r="C102" s="168"/>
+      <c r="D102" s="168"/>
+      <c r="E102" s="168"/>
+      <c r="F102" s="168"/>
+      <c r="G102" s="168"/>
+      <c r="H102" s="168"/>
+      <c r="I102" s="168"/>
+      <c r="J102" s="168"/>
+      <c r="K102" s="168"/>
+      <c r="L102" s="168"/>
+      <c r="M102" s="168"/>
+      <c r="N102" s="168"/>
+      <c r="O102" s="168"/>
+      <c r="P102" s="168"/>
       <c r="T102" s="147"/>
     </row>
     <row r="103" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="158" t="s">
+      <c r="A103" s="172" t="s">
         <v>283</v>
       </c>
-      <c r="B103" s="158"/>
-      <c r="C103" s="158"/>
-      <c r="D103" s="158"/>
-      <c r="E103" s="158"/>
-      <c r="F103" s="158"/>
-      <c r="G103" s="158"/>
-      <c r="H103" s="158"/>
-      <c r="I103" s="158"/>
-      <c r="J103" s="158"/>
-      <c r="K103" s="158"/>
-      <c r="L103" s="158"/>
-      <c r="M103" s="158"/>
-      <c r="N103" s="158"/>
-      <c r="O103" s="158"/>
-      <c r="P103" s="158"/>
+      <c r="B103" s="172"/>
+      <c r="C103" s="172"/>
+      <c r="D103" s="172"/>
+      <c r="E103" s="172"/>
+      <c r="F103" s="172"/>
+      <c r="G103" s="172"/>
+      <c r="H103" s="172"/>
+      <c r="I103" s="172"/>
+      <c r="J103" s="172"/>
+      <c r="K103" s="172"/>
+      <c r="L103" s="172"/>
+      <c r="M103" s="172"/>
+      <c r="N103" s="172"/>
+      <c r="O103" s="172"/>
+      <c r="P103" s="172"/>
       <c r="T103" s="147"/>
     </row>
     <row r="104" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="155" t="s">
+      <c r="A104" s="168" t="s">
         <v>284</v>
       </c>
-      <c r="B104" s="155"/>
-      <c r="C104" s="155"/>
-      <c r="D104" s="155"/>
-      <c r="E104" s="155"/>
-      <c r="F104" s="155"/>
-      <c r="G104" s="155"/>
-      <c r="H104" s="155"/>
-      <c r="I104" s="155"/>
-      <c r="J104" s="155"/>
-      <c r="K104" s="155"/>
-      <c r="L104" s="155"/>
-      <c r="M104" s="155"/>
-      <c r="N104" s="155"/>
-      <c r="O104" s="155"/>
-      <c r="P104" s="155"/>
+      <c r="B104" s="168"/>
+      <c r="C104" s="168"/>
+      <c r="D104" s="168"/>
+      <c r="E104" s="168"/>
+      <c r="F104" s="168"/>
+      <c r="G104" s="168"/>
+      <c r="H104" s="168"/>
+      <c r="I104" s="168"/>
+      <c r="J104" s="168"/>
+      <c r="K104" s="168"/>
+      <c r="L104" s="168"/>
+      <c r="M104" s="168"/>
+      <c r="N104" s="168"/>
+      <c r="O104" s="168"/>
+      <c r="P104" s="168"/>
       <c r="T104" s="147"/>
     </row>
     <row r="105" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A105" s="159" t="s">
+      <c r="A105" s="175" t="s">
         <v>285</v>
       </c>
-      <c r="B105" s="159"/>
-      <c r="C105" s="159"/>
-      <c r="D105" s="159"/>
-      <c r="E105" s="159"/>
-      <c r="F105" s="159"/>
-      <c r="G105" s="159"/>
-      <c r="H105" s="159"/>
-      <c r="I105" s="159"/>
-      <c r="J105" s="159"/>
-      <c r="K105" s="159"/>
-      <c r="L105" s="159"/>
-      <c r="M105" s="159"/>
-      <c r="N105" s="159"/>
-      <c r="O105" s="159"/>
-      <c r="P105" s="159"/>
+      <c r="B105" s="175"/>
+      <c r="C105" s="175"/>
+      <c r="D105" s="175"/>
+      <c r="E105" s="175"/>
+      <c r="F105" s="175"/>
+      <c r="G105" s="175"/>
+      <c r="H105" s="175"/>
+      <c r="I105" s="175"/>
+      <c r="J105" s="175"/>
+      <c r="K105" s="175"/>
+      <c r="L105" s="175"/>
+      <c r="M105" s="175"/>
+      <c r="N105" s="175"/>
+      <c r="O105" s="175"/>
+      <c r="P105" s="175"/>
       <c r="T105" s="147"/>
     </row>
     <row r="106" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A106" s="154" t="s">
+      <c r="A106" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="B106" s="154"/>
-      <c r="C106" s="154"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="154"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="154"/>
-      <c r="I106" s="154"/>
-      <c r="J106" s="154"/>
-      <c r="K106" s="154"/>
-      <c r="L106" s="154"/>
-      <c r="M106" s="154"/>
-      <c r="N106" s="154"/>
-      <c r="O106" s="154"/>
-      <c r="P106" s="154"/>
+      <c r="B106" s="174"/>
+      <c r="C106" s="174"/>
+      <c r="D106" s="174"/>
+      <c r="E106" s="174"/>
+      <c r="F106" s="174"/>
+      <c r="G106" s="174"/>
+      <c r="H106" s="174"/>
+      <c r="I106" s="174"/>
+      <c r="J106" s="174"/>
+      <c r="K106" s="174"/>
+      <c r="L106" s="174"/>
+      <c r="M106" s="174"/>
+      <c r="N106" s="174"/>
+      <c r="O106" s="174"/>
+      <c r="P106" s="174"/>
       <c r="T106" s="147"/>
     </row>
     <row r="107" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="155" t="s">
+      <c r="A107" s="168" t="s">
         <v>287</v>
       </c>
-      <c r="B107" s="155"/>
-      <c r="C107" s="155"/>
-      <c r="D107" s="155"/>
-      <c r="E107" s="155"/>
-      <c r="F107" s="155"/>
-      <c r="G107" s="155"/>
-      <c r="H107" s="155"/>
-      <c r="I107" s="155"/>
-      <c r="J107" s="155"/>
-      <c r="K107" s="155"/>
-      <c r="L107" s="155"/>
-      <c r="M107" s="155"/>
-      <c r="N107" s="155"/>
-      <c r="O107" s="155"/>
-      <c r="P107" s="155"/>
+      <c r="B107" s="168"/>
+      <c r="C107" s="168"/>
+      <c r="D107" s="168"/>
+      <c r="E107" s="168"/>
+      <c r="F107" s="168"/>
+      <c r="G107" s="168"/>
+      <c r="H107" s="168"/>
+      <c r="I107" s="168"/>
+      <c r="J107" s="168"/>
+      <c r="K107" s="168"/>
+      <c r="L107" s="168"/>
+      <c r="M107" s="168"/>
+      <c r="N107" s="168"/>
+      <c r="O107" s="168"/>
+      <c r="P107" s="168"/>
       <c r="T107" s="147"/>
     </row>
     <row r="108" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A108" s="156" t="s">
+      <c r="A108" s="162" t="s">
         <v>288</v>
       </c>
-      <c r="B108" s="156"/>
-      <c r="C108" s="156"/>
-      <c r="D108" s="156"/>
-      <c r="E108" s="156"/>
-      <c r="F108" s="156"/>
-      <c r="G108" s="156"/>
-      <c r="H108" s="156"/>
-      <c r="I108" s="156"/>
-      <c r="J108" s="156"/>
-      <c r="K108" s="156"/>
-      <c r="L108" s="156"/>
-      <c r="M108" s="156"/>
-      <c r="N108" s="156"/>
-      <c r="O108" s="156"/>
-      <c r="P108" s="156"/>
+      <c r="B108" s="162"/>
+      <c r="C108" s="162"/>
+      <c r="D108" s="162"/>
+      <c r="E108" s="162"/>
+      <c r="F108" s="162"/>
+      <c r="G108" s="162"/>
+      <c r="H108" s="162"/>
+      <c r="I108" s="162"/>
+      <c r="J108" s="162"/>
+      <c r="K108" s="162"/>
+      <c r="L108" s="162"/>
+      <c r="M108" s="162"/>
+      <c r="N108" s="162"/>
+      <c r="O108" s="162"/>
+      <c r="P108" s="162"/>
       <c r="T108" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A99:P99"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A89:P89"/>
+    <mergeCell ref="A90:P90"/>
+    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A93:P93"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A97:P97"/>
+    <mergeCell ref="A98:P98"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A40:P40"/>
     <mergeCell ref="A41:P41"/>
@@ -10415,63 +10466,12 @@
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="A49:P49"/>
     <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A99:P99"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="A89:P89"/>
-    <mergeCell ref="A90:P90"/>
-    <mergeCell ref="A91:P91"/>
-    <mergeCell ref="A92:P92"/>
-    <mergeCell ref="A93:P93"/>
-    <mergeCell ref="A94:P94"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="A97:P97"/>
-    <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A38:P38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10511,33 +10511,33 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="179" t="s">
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="179" t="s">
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="180"/>
-      <c r="N4" s="181"/>
-      <c r="O4" s="182" t="s">
+      <c r="M4" s="179"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="181" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="43" thickBot="1">
-      <c r="B5" s="178"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
@@ -10574,7 +10574,7 @@
       <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="183"/>
+      <c r="O5" s="182"/>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="10" t="s">
